--- a/Lý nâng cao/Thư viện bài học.xlsx
+++ b/Lý nâng cao/Thư viện bài học.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="136">
   <si>
     <t>THƯ VIỆN BÀI HỌC - VẬT LÝ 12</t>
   </si>
@@ -416,6 +416,15 @@
     <t>Đề 08
 Đề 09</t>
   </si>
+  <si>
+    <t>VIDEO Buổi 28</t>
+  </si>
+  <si>
+    <t>File note Buổi 28</t>
+  </si>
+  <si>
+    <t>Đề 10</t>
+  </si>
 </sst>
 </file>
 
@@ -687,7 +696,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="60">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -812,11 +821,8 @@
     <xf borderId="5" fillId="5" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="5" fillId="5" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf borderId="6" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="6" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
@@ -825,6 +831,12 @@
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="5" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="5" fillId="5" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="5" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="7" fillId="4" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
@@ -2479,7 +2491,7 @@
     <row r="33">
       <c r="A33" s="1"/>
       <c r="B33" s="22">
-        <v>45074.0</v>
+        <v>45081.0</v>
       </c>
       <c r="C33" s="23">
         <v>28.0</v>
@@ -2495,8 +2507,12 @@
       </c>
       <c r="G33" s="38"/>
       <c r="H33" s="38"/>
-      <c r="I33" s="39"/>
-      <c r="J33" s="38"/>
+      <c r="I33" s="42" t="s">
+        <v>133</v>
+      </c>
+      <c r="J33" s="24" t="s">
+        <v>134</v>
+      </c>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
@@ -2518,14 +2534,24 @@
     </row>
     <row r="34">
       <c r="A34" s="1"/>
-      <c r="B34" s="42"/>
-      <c r="C34" s="43"/>
-      <c r="D34" s="43"/>
-      <c r="E34" s="37"/>
-      <c r="F34" s="37"/>
+      <c r="B34" s="15">
+        <v>45088.0</v>
+      </c>
+      <c r="C34" s="16">
+        <v>29.0</v>
+      </c>
+      <c r="D34" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="E34" s="29" t="s">
+        <v>135</v>
+      </c>
+      <c r="F34" s="18" t="s">
+        <v>135</v>
+      </c>
       <c r="G34" s="37"/>
       <c r="H34" s="37"/>
-      <c r="I34" s="44"/>
+      <c r="I34" s="43"/>
       <c r="J34" s="37"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
@@ -2548,9 +2574,9 @@
     </row>
     <row r="35">
       <c r="A35" s="1"/>
-      <c r="B35" s="45"/>
-      <c r="C35" s="46"/>
-      <c r="D35" s="46"/>
+      <c r="B35" s="44"/>
+      <c r="C35" s="45"/>
+      <c r="D35" s="45"/>
       <c r="E35" s="38"/>
       <c r="F35" s="38"/>
       <c r="G35" s="38"/>
@@ -2578,14 +2604,14 @@
     </row>
     <row r="36">
       <c r="A36" s="1"/>
-      <c r="B36" s="42"/>
-      <c r="C36" s="43"/>
-      <c r="D36" s="43"/>
+      <c r="B36" s="46"/>
+      <c r="C36" s="47"/>
+      <c r="D36" s="47"/>
       <c r="E36" s="37"/>
       <c r="F36" s="37"/>
       <c r="G36" s="37"/>
       <c r="H36" s="37"/>
-      <c r="I36" s="44"/>
+      <c r="I36" s="43"/>
       <c r="J36" s="37"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
@@ -2608,9 +2634,9 @@
     </row>
     <row r="37">
       <c r="A37" s="1"/>
-      <c r="B37" s="45"/>
-      <c r="C37" s="46"/>
-      <c r="D37" s="46"/>
+      <c r="B37" s="44"/>
+      <c r="C37" s="45"/>
+      <c r="D37" s="45"/>
       <c r="E37" s="38"/>
       <c r="F37" s="38"/>
       <c r="G37" s="38"/>
@@ -2638,14 +2664,14 @@
     </row>
     <row r="38">
       <c r="A38" s="1"/>
-      <c r="B38" s="42"/>
-      <c r="C38" s="43"/>
-      <c r="D38" s="43"/>
+      <c r="B38" s="46"/>
+      <c r="C38" s="47"/>
+      <c r="D38" s="47"/>
       <c r="E38" s="37"/>
       <c r="F38" s="37"/>
       <c r="G38" s="37"/>
       <c r="H38" s="37"/>
-      <c r="I38" s="44"/>
+      <c r="I38" s="43"/>
       <c r="J38" s="37"/>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
@@ -2668,9 +2694,9 @@
     </row>
     <row r="39">
       <c r="A39" s="1"/>
-      <c r="B39" s="45"/>
-      <c r="C39" s="46"/>
-      <c r="D39" s="46"/>
+      <c r="B39" s="44"/>
+      <c r="C39" s="45"/>
+      <c r="D39" s="45"/>
       <c r="E39" s="38"/>
       <c r="F39" s="38"/>
       <c r="G39" s="38"/>
@@ -2698,14 +2724,14 @@
     </row>
     <row r="40">
       <c r="A40" s="1"/>
-      <c r="B40" s="42"/>
-      <c r="C40" s="43"/>
-      <c r="D40" s="43"/>
+      <c r="B40" s="46"/>
+      <c r="C40" s="47"/>
+      <c r="D40" s="47"/>
       <c r="E40" s="37"/>
       <c r="F40" s="37"/>
       <c r="G40" s="37"/>
       <c r="H40" s="37"/>
-      <c r="I40" s="44"/>
+      <c r="I40" s="43"/>
       <c r="J40" s="37"/>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
@@ -2728,9 +2754,9 @@
     </row>
     <row r="41">
       <c r="A41" s="1"/>
-      <c r="B41" s="45"/>
-      <c r="C41" s="46"/>
-      <c r="D41" s="46"/>
+      <c r="B41" s="44"/>
+      <c r="C41" s="45"/>
+      <c r="D41" s="45"/>
       <c r="E41" s="38"/>
       <c r="F41" s="38"/>
       <c r="G41" s="38"/>
@@ -2758,14 +2784,14 @@
     </row>
     <row r="42">
       <c r="A42" s="1"/>
-      <c r="B42" s="42"/>
-      <c r="C42" s="43"/>
-      <c r="D42" s="43"/>
+      <c r="B42" s="46"/>
+      <c r="C42" s="47"/>
+      <c r="D42" s="47"/>
       <c r="E42" s="37"/>
       <c r="F42" s="37"/>
       <c r="G42" s="37"/>
       <c r="H42" s="37"/>
-      <c r="I42" s="44"/>
+      <c r="I42" s="43"/>
       <c r="J42" s="37"/>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
@@ -2788,9 +2814,9 @@
     </row>
     <row r="43">
       <c r="A43" s="1"/>
-      <c r="B43" s="45"/>
-      <c r="C43" s="46"/>
-      <c r="D43" s="46"/>
+      <c r="B43" s="44"/>
+      <c r="C43" s="45"/>
+      <c r="D43" s="45"/>
       <c r="E43" s="38"/>
       <c r="F43" s="38"/>
       <c r="G43" s="38"/>
@@ -2818,14 +2844,14 @@
     </row>
     <row r="44">
       <c r="A44" s="1"/>
-      <c r="B44" s="42"/>
-      <c r="C44" s="43"/>
-      <c r="D44" s="43"/>
+      <c r="B44" s="46"/>
+      <c r="C44" s="47"/>
+      <c r="D44" s="47"/>
       <c r="E44" s="37"/>
       <c r="F44" s="37"/>
       <c r="G44" s="37"/>
       <c r="H44" s="37"/>
-      <c r="I44" s="44"/>
+      <c r="I44" s="43"/>
       <c r="J44" s="37"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
@@ -2848,9 +2874,9 @@
     </row>
     <row r="45">
       <c r="A45" s="1"/>
-      <c r="B45" s="45"/>
-      <c r="C45" s="46"/>
-      <c r="D45" s="46"/>
+      <c r="B45" s="44"/>
+      <c r="C45" s="45"/>
+      <c r="D45" s="45"/>
       <c r="E45" s="38"/>
       <c r="F45" s="38"/>
       <c r="G45" s="38"/>
@@ -2878,14 +2904,14 @@
     </row>
     <row r="46">
       <c r="A46" s="1"/>
-      <c r="B46" s="42"/>
-      <c r="C46" s="43"/>
-      <c r="D46" s="43"/>
+      <c r="B46" s="46"/>
+      <c r="C46" s="47"/>
+      <c r="D46" s="47"/>
       <c r="E46" s="37"/>
       <c r="F46" s="37"/>
       <c r="G46" s="37"/>
       <c r="H46" s="37"/>
-      <c r="I46" s="44"/>
+      <c r="I46" s="43"/>
       <c r="J46" s="37"/>
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
@@ -2908,9 +2934,9 @@
     </row>
     <row r="47">
       <c r="A47" s="1"/>
-      <c r="B47" s="45"/>
-      <c r="C47" s="46"/>
-      <c r="D47" s="46"/>
+      <c r="B47" s="44"/>
+      <c r="C47" s="45"/>
+      <c r="D47" s="45"/>
       <c r="E47" s="38"/>
       <c r="F47" s="38"/>
       <c r="G47" s="38"/>
@@ -2938,14 +2964,14 @@
     </row>
     <row r="48">
       <c r="A48" s="1"/>
-      <c r="B48" s="42"/>
-      <c r="C48" s="43"/>
-      <c r="D48" s="43"/>
+      <c r="B48" s="46"/>
+      <c r="C48" s="47"/>
+      <c r="D48" s="47"/>
       <c r="E48" s="37"/>
       <c r="F48" s="37"/>
       <c r="G48" s="37"/>
       <c r="H48" s="37"/>
-      <c r="I48" s="44"/>
+      <c r="I48" s="43"/>
       <c r="J48" s="37"/>
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
@@ -2968,9 +2994,9 @@
     </row>
     <row r="49">
       <c r="A49" s="1"/>
-      <c r="B49" s="45"/>
-      <c r="C49" s="46"/>
-      <c r="D49" s="46"/>
+      <c r="B49" s="44"/>
+      <c r="C49" s="45"/>
+      <c r="D49" s="45"/>
       <c r="E49" s="38"/>
       <c r="F49" s="38"/>
       <c r="G49" s="38"/>
@@ -2998,14 +3024,14 @@
     </row>
     <row r="50">
       <c r="A50" s="1"/>
-      <c r="B50" s="42"/>
-      <c r="C50" s="43"/>
-      <c r="D50" s="43"/>
+      <c r="B50" s="46"/>
+      <c r="C50" s="47"/>
+      <c r="D50" s="47"/>
       <c r="E50" s="37"/>
       <c r="F50" s="37"/>
       <c r="G50" s="37"/>
       <c r="H50" s="37"/>
-      <c r="I50" s="44"/>
+      <c r="I50" s="43"/>
       <c r="J50" s="37"/>
       <c r="K50" s="1"/>
       <c r="L50" s="1"/>
@@ -3028,9 +3054,9 @@
     </row>
     <row r="51">
       <c r="A51" s="1"/>
-      <c r="B51" s="45"/>
-      <c r="C51" s="46"/>
-      <c r="D51" s="46"/>
+      <c r="B51" s="44"/>
+      <c r="C51" s="45"/>
+      <c r="D51" s="45"/>
       <c r="E51" s="38"/>
       <c r="F51" s="38"/>
       <c r="G51" s="38"/>
@@ -3058,14 +3084,14 @@
     </row>
     <row r="52">
       <c r="A52" s="1"/>
-      <c r="B52" s="42"/>
-      <c r="C52" s="43"/>
-      <c r="D52" s="43"/>
+      <c r="B52" s="46"/>
+      <c r="C52" s="47"/>
+      <c r="D52" s="47"/>
       <c r="E52" s="37"/>
       <c r="F52" s="37"/>
       <c r="G52" s="37"/>
       <c r="H52" s="37"/>
-      <c r="I52" s="44"/>
+      <c r="I52" s="43"/>
       <c r="J52" s="37"/>
       <c r="K52" s="1"/>
       <c r="L52" s="1"/>
@@ -3088,9 +3114,9 @@
     </row>
     <row r="53">
       <c r="A53" s="1"/>
-      <c r="B53" s="45"/>
-      <c r="C53" s="46"/>
-      <c r="D53" s="46"/>
+      <c r="B53" s="44"/>
+      <c r="C53" s="45"/>
+      <c r="D53" s="45"/>
       <c r="E53" s="38"/>
       <c r="F53" s="38"/>
       <c r="G53" s="38"/>
@@ -3118,14 +3144,14 @@
     </row>
     <row r="54">
       <c r="A54" s="1"/>
-      <c r="B54" s="42"/>
-      <c r="C54" s="43"/>
-      <c r="D54" s="43"/>
+      <c r="B54" s="46"/>
+      <c r="C54" s="47"/>
+      <c r="D54" s="47"/>
       <c r="E54" s="37"/>
       <c r="F54" s="37"/>
       <c r="G54" s="37"/>
       <c r="H54" s="37"/>
-      <c r="I54" s="44"/>
+      <c r="I54" s="43"/>
       <c r="J54" s="37"/>
       <c r="K54" s="1"/>
       <c r="L54" s="1"/>
@@ -3148,9 +3174,9 @@
     </row>
     <row r="55">
       <c r="A55" s="1"/>
-      <c r="B55" s="45"/>
-      <c r="C55" s="46"/>
-      <c r="D55" s="46"/>
+      <c r="B55" s="44"/>
+      <c r="C55" s="45"/>
+      <c r="D55" s="45"/>
       <c r="E55" s="38"/>
       <c r="F55" s="38"/>
       <c r="G55" s="38"/>
@@ -3178,14 +3204,14 @@
     </row>
     <row r="56">
       <c r="A56" s="1"/>
-      <c r="B56" s="42"/>
-      <c r="C56" s="43"/>
-      <c r="D56" s="43"/>
+      <c r="B56" s="46"/>
+      <c r="C56" s="47"/>
+      <c r="D56" s="47"/>
       <c r="E56" s="37"/>
       <c r="F56" s="37"/>
       <c r="G56" s="37"/>
       <c r="H56" s="37"/>
-      <c r="I56" s="44"/>
+      <c r="I56" s="43"/>
       <c r="J56" s="37"/>
       <c r="K56" s="1"/>
       <c r="L56" s="1"/>
@@ -3208,9 +3234,9 @@
     </row>
     <row r="57">
       <c r="A57" s="1"/>
-      <c r="B57" s="45"/>
-      <c r="C57" s="46"/>
-      <c r="D57" s="46"/>
+      <c r="B57" s="44"/>
+      <c r="C57" s="45"/>
+      <c r="D57" s="45"/>
       <c r="E57" s="38"/>
       <c r="F57" s="38"/>
       <c r="G57" s="38"/>
@@ -3238,14 +3264,14 @@
     </row>
     <row r="58">
       <c r="A58" s="1"/>
-      <c r="B58" s="42"/>
-      <c r="C58" s="43"/>
-      <c r="D58" s="43"/>
+      <c r="B58" s="46"/>
+      <c r="C58" s="47"/>
+      <c r="D58" s="47"/>
       <c r="E58" s="37"/>
       <c r="F58" s="37"/>
       <c r="G58" s="37"/>
       <c r="H58" s="37"/>
-      <c r="I58" s="44"/>
+      <c r="I58" s="43"/>
       <c r="J58" s="37"/>
       <c r="K58" s="1"/>
       <c r="L58" s="1"/>
@@ -3268,9 +3294,9 @@
     </row>
     <row r="59">
       <c r="A59" s="1"/>
-      <c r="B59" s="45"/>
-      <c r="C59" s="46"/>
-      <c r="D59" s="46"/>
+      <c r="B59" s="44"/>
+      <c r="C59" s="45"/>
+      <c r="D59" s="45"/>
       <c r="E59" s="38"/>
       <c r="F59" s="38"/>
       <c r="G59" s="38"/>
@@ -3298,14 +3324,14 @@
     </row>
     <row r="60">
       <c r="A60" s="1"/>
-      <c r="B60" s="42"/>
-      <c r="C60" s="43"/>
-      <c r="D60" s="43"/>
+      <c r="B60" s="46"/>
+      <c r="C60" s="47"/>
+      <c r="D60" s="47"/>
       <c r="E60" s="37"/>
       <c r="F60" s="37"/>
       <c r="G60" s="37"/>
       <c r="H60" s="37"/>
-      <c r="I60" s="44"/>
+      <c r="I60" s="43"/>
       <c r="J60" s="37"/>
       <c r="K60" s="1"/>
       <c r="L60" s="1"/>
@@ -3328,9 +3354,9 @@
     </row>
     <row r="61">
       <c r="A61" s="1"/>
-      <c r="B61" s="45"/>
-      <c r="C61" s="46"/>
-      <c r="D61" s="46"/>
+      <c r="B61" s="44"/>
+      <c r="C61" s="45"/>
+      <c r="D61" s="45"/>
       <c r="E61" s="38"/>
       <c r="F61" s="38"/>
       <c r="G61" s="38"/>
@@ -3358,14 +3384,14 @@
     </row>
     <row r="62">
       <c r="A62" s="1"/>
-      <c r="B62" s="42"/>
-      <c r="C62" s="43"/>
-      <c r="D62" s="43"/>
+      <c r="B62" s="46"/>
+      <c r="C62" s="47"/>
+      <c r="D62" s="47"/>
       <c r="E62" s="37"/>
       <c r="F62" s="37"/>
       <c r="G62" s="37"/>
       <c r="H62" s="37"/>
-      <c r="I62" s="44"/>
+      <c r="I62" s="43"/>
       <c r="J62" s="37"/>
       <c r="K62" s="1"/>
       <c r="L62" s="1"/>
@@ -3388,9 +3414,9 @@
     </row>
     <row r="63">
       <c r="A63" s="1"/>
-      <c r="B63" s="45"/>
-      <c r="C63" s="46"/>
-      <c r="D63" s="46"/>
+      <c r="B63" s="44"/>
+      <c r="C63" s="45"/>
+      <c r="D63" s="45"/>
       <c r="E63" s="38"/>
       <c r="F63" s="38"/>
       <c r="G63" s="38"/>
@@ -3418,14 +3444,14 @@
     </row>
     <row r="64">
       <c r="A64" s="1"/>
-      <c r="B64" s="42"/>
-      <c r="C64" s="43"/>
-      <c r="D64" s="43"/>
+      <c r="B64" s="46"/>
+      <c r="C64" s="47"/>
+      <c r="D64" s="47"/>
       <c r="E64" s="37"/>
       <c r="F64" s="37"/>
       <c r="G64" s="37"/>
       <c r="H64" s="37"/>
-      <c r="I64" s="44"/>
+      <c r="I64" s="43"/>
       <c r="J64" s="37"/>
       <c r="K64" s="1"/>
       <c r="L64" s="1"/>
@@ -3448,9 +3474,9 @@
     </row>
     <row r="65">
       <c r="A65" s="1"/>
-      <c r="B65" s="45"/>
-      <c r="C65" s="46"/>
-      <c r="D65" s="46"/>
+      <c r="B65" s="44"/>
+      <c r="C65" s="45"/>
+      <c r="D65" s="45"/>
       <c r="E65" s="38"/>
       <c r="F65" s="38"/>
       <c r="G65" s="38"/>
@@ -3478,14 +3504,14 @@
     </row>
     <row r="66">
       <c r="A66" s="1"/>
-      <c r="B66" s="42"/>
-      <c r="C66" s="43"/>
-      <c r="D66" s="43"/>
+      <c r="B66" s="46"/>
+      <c r="C66" s="47"/>
+      <c r="D66" s="47"/>
       <c r="E66" s="37"/>
       <c r="F66" s="37"/>
       <c r="G66" s="37"/>
       <c r="H66" s="37"/>
-      <c r="I66" s="44"/>
+      <c r="I66" s="43"/>
       <c r="J66" s="37"/>
       <c r="K66" s="1"/>
       <c r="L66" s="1"/>
@@ -3508,9 +3534,9 @@
     </row>
     <row r="67">
       <c r="A67" s="1"/>
-      <c r="B67" s="45"/>
-      <c r="C67" s="46"/>
-      <c r="D67" s="46"/>
+      <c r="B67" s="44"/>
+      <c r="C67" s="45"/>
+      <c r="D67" s="45"/>
       <c r="E67" s="38"/>
       <c r="F67" s="38"/>
       <c r="G67" s="38"/>
@@ -3538,14 +3564,14 @@
     </row>
     <row r="68">
       <c r="A68" s="1"/>
-      <c r="B68" s="42"/>
-      <c r="C68" s="43"/>
-      <c r="D68" s="43"/>
+      <c r="B68" s="46"/>
+      <c r="C68" s="47"/>
+      <c r="D68" s="47"/>
       <c r="E68" s="37"/>
       <c r="F68" s="37"/>
       <c r="G68" s="37"/>
       <c r="H68" s="37"/>
-      <c r="I68" s="44"/>
+      <c r="I68" s="43"/>
       <c r="J68" s="37"/>
       <c r="K68" s="1"/>
       <c r="L68" s="1"/>
@@ -3568,9 +3594,9 @@
     </row>
     <row r="69">
       <c r="A69" s="1"/>
-      <c r="B69" s="45"/>
-      <c r="C69" s="46"/>
-      <c r="D69" s="46"/>
+      <c r="B69" s="44"/>
+      <c r="C69" s="45"/>
+      <c r="D69" s="45"/>
       <c r="E69" s="38"/>
       <c r="F69" s="38"/>
       <c r="G69" s="38"/>
@@ -3598,14 +3624,14 @@
     </row>
     <row r="70">
       <c r="A70" s="1"/>
-      <c r="B70" s="42"/>
-      <c r="C70" s="43"/>
-      <c r="D70" s="43"/>
+      <c r="B70" s="46"/>
+      <c r="C70" s="47"/>
+      <c r="D70" s="47"/>
       <c r="E70" s="37"/>
       <c r="F70" s="37"/>
       <c r="G70" s="37"/>
       <c r="H70" s="37"/>
-      <c r="I70" s="44"/>
+      <c r="I70" s="43"/>
       <c r="J70" s="37"/>
       <c r="K70" s="1"/>
       <c r="L70" s="1"/>
@@ -3628,14 +3654,14 @@
     </row>
     <row r="71">
       <c r="A71" s="1"/>
-      <c r="B71" s="47"/>
-      <c r="C71" s="48"/>
-      <c r="D71" s="48"/>
-      <c r="E71" s="49"/>
-      <c r="F71" s="49"/>
-      <c r="G71" s="49"/>
-      <c r="H71" s="49"/>
-      <c r="I71" s="50"/>
+      <c r="B71" s="48"/>
+      <c r="C71" s="49"/>
+      <c r="D71" s="49"/>
+      <c r="E71" s="50"/>
+      <c r="F71" s="50"/>
+      <c r="G71" s="50"/>
+      <c r="H71" s="50"/>
+      <c r="I71" s="51"/>
       <c r="J71" s="38"/>
       <c r="K71" s="1"/>
       <c r="L71" s="1"/>
@@ -3658,14 +3684,14 @@
     </row>
     <row r="72">
       <c r="A72" s="1"/>
-      <c r="B72" s="51"/>
-      <c r="C72" s="52"/>
-      <c r="D72" s="52"/>
-      <c r="E72" s="53"/>
-      <c r="F72" s="53"/>
-      <c r="G72" s="53"/>
-      <c r="H72" s="53"/>
-      <c r="I72" s="54"/>
+      <c r="B72" s="52"/>
+      <c r="C72" s="53"/>
+      <c r="D72" s="53"/>
+      <c r="E72" s="54"/>
+      <c r="F72" s="54"/>
+      <c r="G72" s="54"/>
+      <c r="H72" s="54"/>
+      <c r="I72" s="55"/>
       <c r="J72" s="37"/>
       <c r="K72" s="1"/>
       <c r="L72" s="1"/>
@@ -3688,14 +3714,14 @@
     </row>
     <row r="73">
       <c r="A73" s="1"/>
-      <c r="B73" s="47"/>
-      <c r="C73" s="48"/>
-      <c r="D73" s="48"/>
-      <c r="E73" s="49"/>
-      <c r="F73" s="49"/>
-      <c r="G73" s="49"/>
-      <c r="H73" s="49"/>
-      <c r="I73" s="50"/>
+      <c r="B73" s="48"/>
+      <c r="C73" s="49"/>
+      <c r="D73" s="49"/>
+      <c r="E73" s="50"/>
+      <c r="F73" s="50"/>
+      <c r="G73" s="50"/>
+      <c r="H73" s="50"/>
+      <c r="I73" s="51"/>
       <c r="J73" s="38"/>
       <c r="K73" s="1"/>
       <c r="L73" s="1"/>
@@ -3718,14 +3744,14 @@
     </row>
     <row r="74">
       <c r="A74" s="1"/>
-      <c r="B74" s="51"/>
-      <c r="C74" s="52"/>
-      <c r="D74" s="52"/>
-      <c r="E74" s="53"/>
-      <c r="F74" s="53"/>
-      <c r="G74" s="53"/>
-      <c r="H74" s="53"/>
-      <c r="I74" s="54"/>
+      <c r="B74" s="52"/>
+      <c r="C74" s="53"/>
+      <c r="D74" s="53"/>
+      <c r="E74" s="54"/>
+      <c r="F74" s="54"/>
+      <c r="G74" s="54"/>
+      <c r="H74" s="54"/>
+      <c r="I74" s="55"/>
       <c r="J74" s="37"/>
       <c r="K74" s="1"/>
       <c r="L74" s="1"/>
@@ -3748,14 +3774,14 @@
     </row>
     <row r="75">
       <c r="A75" s="1"/>
-      <c r="B75" s="47"/>
-      <c r="C75" s="48"/>
-      <c r="D75" s="48"/>
-      <c r="E75" s="49"/>
-      <c r="F75" s="49"/>
-      <c r="G75" s="49"/>
-      <c r="H75" s="49"/>
-      <c r="I75" s="50"/>
+      <c r="B75" s="48"/>
+      <c r="C75" s="49"/>
+      <c r="D75" s="49"/>
+      <c r="E75" s="50"/>
+      <c r="F75" s="50"/>
+      <c r="G75" s="50"/>
+      <c r="H75" s="50"/>
+      <c r="I75" s="51"/>
       <c r="J75" s="38"/>
       <c r="K75" s="1"/>
       <c r="L75" s="1"/>
@@ -3778,14 +3804,14 @@
     </row>
     <row r="76">
       <c r="A76" s="1"/>
-      <c r="B76" s="51"/>
-      <c r="C76" s="52"/>
-      <c r="D76" s="52"/>
-      <c r="E76" s="53"/>
-      <c r="F76" s="53"/>
-      <c r="G76" s="53"/>
-      <c r="H76" s="53"/>
-      <c r="I76" s="54"/>
+      <c r="B76" s="52"/>
+      <c r="C76" s="53"/>
+      <c r="D76" s="53"/>
+      <c r="E76" s="54"/>
+      <c r="F76" s="54"/>
+      <c r="G76" s="54"/>
+      <c r="H76" s="54"/>
+      <c r="I76" s="55"/>
       <c r="J76" s="37"/>
       <c r="K76" s="1"/>
       <c r="L76" s="1"/>
@@ -3808,14 +3834,14 @@
     </row>
     <row r="77">
       <c r="A77" s="1"/>
-      <c r="B77" s="47"/>
-      <c r="C77" s="48"/>
-      <c r="D77" s="48"/>
-      <c r="E77" s="49"/>
-      <c r="F77" s="49"/>
-      <c r="G77" s="49"/>
-      <c r="H77" s="49"/>
-      <c r="I77" s="50"/>
+      <c r="B77" s="48"/>
+      <c r="C77" s="49"/>
+      <c r="D77" s="49"/>
+      <c r="E77" s="50"/>
+      <c r="F77" s="50"/>
+      <c r="G77" s="50"/>
+      <c r="H77" s="50"/>
+      <c r="I77" s="51"/>
       <c r="J77" s="38"/>
       <c r="K77" s="1"/>
       <c r="L77" s="1"/>
@@ -3838,14 +3864,14 @@
     </row>
     <row r="78">
       <c r="A78" s="1"/>
-      <c r="B78" s="51"/>
-      <c r="C78" s="52"/>
-      <c r="D78" s="52"/>
-      <c r="E78" s="53"/>
-      <c r="F78" s="53"/>
-      <c r="G78" s="53"/>
-      <c r="H78" s="53"/>
-      <c r="I78" s="54"/>
+      <c r="B78" s="52"/>
+      <c r="C78" s="53"/>
+      <c r="D78" s="53"/>
+      <c r="E78" s="54"/>
+      <c r="F78" s="54"/>
+      <c r="G78" s="54"/>
+      <c r="H78" s="54"/>
+      <c r="I78" s="55"/>
       <c r="J78" s="37"/>
       <c r="K78" s="1"/>
       <c r="L78" s="1"/>
@@ -3868,14 +3894,14 @@
     </row>
     <row r="79">
       <c r="A79" s="1"/>
-      <c r="B79" s="47"/>
-      <c r="C79" s="48"/>
-      <c r="D79" s="48"/>
-      <c r="E79" s="49"/>
-      <c r="F79" s="49"/>
-      <c r="G79" s="49"/>
-      <c r="H79" s="49"/>
-      <c r="I79" s="50"/>
+      <c r="B79" s="48"/>
+      <c r="C79" s="49"/>
+      <c r="D79" s="49"/>
+      <c r="E79" s="50"/>
+      <c r="F79" s="50"/>
+      <c r="G79" s="50"/>
+      <c r="H79" s="50"/>
+      <c r="I79" s="51"/>
       <c r="J79" s="38"/>
       <c r="K79" s="1"/>
       <c r="L79" s="1"/>
@@ -3898,14 +3924,14 @@
     </row>
     <row r="80">
       <c r="A80" s="1"/>
-      <c r="B80" s="51"/>
-      <c r="C80" s="52"/>
-      <c r="D80" s="52"/>
-      <c r="E80" s="53"/>
-      <c r="F80" s="53"/>
-      <c r="G80" s="53"/>
-      <c r="H80" s="53"/>
-      <c r="I80" s="54"/>
+      <c r="B80" s="52"/>
+      <c r="C80" s="53"/>
+      <c r="D80" s="53"/>
+      <c r="E80" s="54"/>
+      <c r="F80" s="54"/>
+      <c r="G80" s="54"/>
+      <c r="H80" s="54"/>
+      <c r="I80" s="55"/>
       <c r="J80" s="37"/>
       <c r="K80" s="1"/>
       <c r="L80" s="1"/>
@@ -3928,15 +3954,15 @@
     </row>
     <row r="81">
       <c r="A81" s="1"/>
-      <c r="B81" s="55"/>
-      <c r="C81" s="56"/>
-      <c r="D81" s="56"/>
-      <c r="E81" s="57"/>
-      <c r="F81" s="57"/>
-      <c r="G81" s="57"/>
-      <c r="H81" s="57"/>
-      <c r="I81" s="58"/>
-      <c r="J81" s="57"/>
+      <c r="B81" s="56"/>
+      <c r="C81" s="57"/>
+      <c r="D81" s="57"/>
+      <c r="E81" s="58"/>
+      <c r="F81" s="58"/>
+      <c r="G81" s="58"/>
+      <c r="H81" s="58"/>
+      <c r="I81" s="59"/>
+      <c r="J81" s="58"/>
       <c r="K81" s="1"/>
       <c r="L81" s="1"/>
       <c r="M81" s="1"/>
@@ -32988,7 +33014,8 @@
     <hyperlink r:id="rId93" ref="I32"/>
     <hyperlink r:id="rId94" ref="J32"/>
     <hyperlink r:id="rId95" ref="F33"/>
+    <hyperlink r:id="rId96" ref="F34"/>
   </hyperlinks>
-  <drawing r:id="rId96"/>
+  <drawing r:id="rId97"/>
 </worksheet>
 </file>
--- a/Lý nâng cao/Thư viện bài học.xlsx
+++ b/Lý nâng cao/Thư viện bài học.xlsx
@@ -423,7 +423,8 @@
     <t>File note Buổi 28</t>
   </si>
   <si>
-    <t>Đề 10</t>
+    <t>Đề 10
+Đề 11</t>
   </si>
 </sst>
 </file>
@@ -696,7 +697,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="59">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -819,9 +820,6 @@
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="5" fillId="5" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="6" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="6" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -2507,10 +2505,10 @@
       </c>
       <c r="G33" s="38"/>
       <c r="H33" s="38"/>
-      <c r="I33" s="42" t="s">
+      <c r="I33" s="27" t="s">
         <v>133</v>
       </c>
-      <c r="J33" s="24" t="s">
+      <c r="J33" s="25" t="s">
         <v>134</v>
       </c>
       <c r="K33" s="1"/>
@@ -2546,12 +2544,12 @@
       <c r="E34" s="29" t="s">
         <v>135</v>
       </c>
-      <c r="F34" s="18" t="s">
+      <c r="F34" s="41" t="s">
         <v>135</v>
       </c>
       <c r="G34" s="37"/>
       <c r="H34" s="37"/>
-      <c r="I34" s="43"/>
+      <c r="I34" s="42"/>
       <c r="J34" s="37"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
@@ -2574,9 +2572,9 @@
     </row>
     <row r="35">
       <c r="A35" s="1"/>
-      <c r="B35" s="44"/>
-      <c r="C35" s="45"/>
-      <c r="D35" s="45"/>
+      <c r="B35" s="43"/>
+      <c r="C35" s="44"/>
+      <c r="D35" s="44"/>
       <c r="E35" s="38"/>
       <c r="F35" s="38"/>
       <c r="G35" s="38"/>
@@ -2604,14 +2602,14 @@
     </row>
     <row r="36">
       <c r="A36" s="1"/>
-      <c r="B36" s="46"/>
-      <c r="C36" s="47"/>
-      <c r="D36" s="47"/>
+      <c r="B36" s="45"/>
+      <c r="C36" s="46"/>
+      <c r="D36" s="46"/>
       <c r="E36" s="37"/>
       <c r="F36" s="37"/>
       <c r="G36" s="37"/>
       <c r="H36" s="37"/>
-      <c r="I36" s="43"/>
+      <c r="I36" s="42"/>
       <c r="J36" s="37"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
@@ -2634,9 +2632,9 @@
     </row>
     <row r="37">
       <c r="A37" s="1"/>
-      <c r="B37" s="44"/>
-      <c r="C37" s="45"/>
-      <c r="D37" s="45"/>
+      <c r="B37" s="43"/>
+      <c r="C37" s="44"/>
+      <c r="D37" s="44"/>
       <c r="E37" s="38"/>
       <c r="F37" s="38"/>
       <c r="G37" s="38"/>
@@ -2664,14 +2662,14 @@
     </row>
     <row r="38">
       <c r="A38" s="1"/>
-      <c r="B38" s="46"/>
-      <c r="C38" s="47"/>
-      <c r="D38" s="47"/>
+      <c r="B38" s="45"/>
+      <c r="C38" s="46"/>
+      <c r="D38" s="46"/>
       <c r="E38" s="37"/>
       <c r="F38" s="37"/>
       <c r="G38" s="37"/>
       <c r="H38" s="37"/>
-      <c r="I38" s="43"/>
+      <c r="I38" s="42"/>
       <c r="J38" s="37"/>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
@@ -2694,9 +2692,9 @@
     </row>
     <row r="39">
       <c r="A39" s="1"/>
-      <c r="B39" s="44"/>
-      <c r="C39" s="45"/>
-      <c r="D39" s="45"/>
+      <c r="B39" s="43"/>
+      <c r="C39" s="44"/>
+      <c r="D39" s="44"/>
       <c r="E39" s="38"/>
       <c r="F39" s="38"/>
       <c r="G39" s="38"/>
@@ -2724,14 +2722,14 @@
     </row>
     <row r="40">
       <c r="A40" s="1"/>
-      <c r="B40" s="46"/>
-      <c r="C40" s="47"/>
-      <c r="D40" s="47"/>
+      <c r="B40" s="45"/>
+      <c r="C40" s="46"/>
+      <c r="D40" s="46"/>
       <c r="E40" s="37"/>
       <c r="F40" s="37"/>
       <c r="G40" s="37"/>
       <c r="H40" s="37"/>
-      <c r="I40" s="43"/>
+      <c r="I40" s="42"/>
       <c r="J40" s="37"/>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
@@ -2754,9 +2752,9 @@
     </row>
     <row r="41">
       <c r="A41" s="1"/>
-      <c r="B41" s="44"/>
-      <c r="C41" s="45"/>
-      <c r="D41" s="45"/>
+      <c r="B41" s="43"/>
+      <c r="C41" s="44"/>
+      <c r="D41" s="44"/>
       <c r="E41" s="38"/>
       <c r="F41" s="38"/>
       <c r="G41" s="38"/>
@@ -2784,14 +2782,14 @@
     </row>
     <row r="42">
       <c r="A42" s="1"/>
-      <c r="B42" s="46"/>
-      <c r="C42" s="47"/>
-      <c r="D42" s="47"/>
+      <c r="B42" s="45"/>
+      <c r="C42" s="46"/>
+      <c r="D42" s="46"/>
       <c r="E42" s="37"/>
       <c r="F42" s="37"/>
       <c r="G42" s="37"/>
       <c r="H42" s="37"/>
-      <c r="I42" s="43"/>
+      <c r="I42" s="42"/>
       <c r="J42" s="37"/>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
@@ -2814,9 +2812,9 @@
     </row>
     <row r="43">
       <c r="A43" s="1"/>
-      <c r="B43" s="44"/>
-      <c r="C43" s="45"/>
-      <c r="D43" s="45"/>
+      <c r="B43" s="43"/>
+      <c r="C43" s="44"/>
+      <c r="D43" s="44"/>
       <c r="E43" s="38"/>
       <c r="F43" s="38"/>
       <c r="G43" s="38"/>
@@ -2844,14 +2842,14 @@
     </row>
     <row r="44">
       <c r="A44" s="1"/>
-      <c r="B44" s="46"/>
-      <c r="C44" s="47"/>
-      <c r="D44" s="47"/>
+      <c r="B44" s="45"/>
+      <c r="C44" s="46"/>
+      <c r="D44" s="46"/>
       <c r="E44" s="37"/>
       <c r="F44" s="37"/>
       <c r="G44" s="37"/>
       <c r="H44" s="37"/>
-      <c r="I44" s="43"/>
+      <c r="I44" s="42"/>
       <c r="J44" s="37"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
@@ -2874,9 +2872,9 @@
     </row>
     <row r="45">
       <c r="A45" s="1"/>
-      <c r="B45" s="44"/>
-      <c r="C45" s="45"/>
-      <c r="D45" s="45"/>
+      <c r="B45" s="43"/>
+      <c r="C45" s="44"/>
+      <c r="D45" s="44"/>
       <c r="E45" s="38"/>
       <c r="F45" s="38"/>
       <c r="G45" s="38"/>
@@ -2904,14 +2902,14 @@
     </row>
     <row r="46">
       <c r="A46" s="1"/>
-      <c r="B46" s="46"/>
-      <c r="C46" s="47"/>
-      <c r="D46" s="47"/>
+      <c r="B46" s="45"/>
+      <c r="C46" s="46"/>
+      <c r="D46" s="46"/>
       <c r="E46" s="37"/>
       <c r="F46" s="37"/>
       <c r="G46" s="37"/>
       <c r="H46" s="37"/>
-      <c r="I46" s="43"/>
+      <c r="I46" s="42"/>
       <c r="J46" s="37"/>
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
@@ -2934,9 +2932,9 @@
     </row>
     <row r="47">
       <c r="A47" s="1"/>
-      <c r="B47" s="44"/>
-      <c r="C47" s="45"/>
-      <c r="D47" s="45"/>
+      <c r="B47" s="43"/>
+      <c r="C47" s="44"/>
+      <c r="D47" s="44"/>
       <c r="E47" s="38"/>
       <c r="F47" s="38"/>
       <c r="G47" s="38"/>
@@ -2964,14 +2962,14 @@
     </row>
     <row r="48">
       <c r="A48" s="1"/>
-      <c r="B48" s="46"/>
-      <c r="C48" s="47"/>
-      <c r="D48" s="47"/>
+      <c r="B48" s="45"/>
+      <c r="C48" s="46"/>
+      <c r="D48" s="46"/>
       <c r="E48" s="37"/>
       <c r="F48" s="37"/>
       <c r="G48" s="37"/>
       <c r="H48" s="37"/>
-      <c r="I48" s="43"/>
+      <c r="I48" s="42"/>
       <c r="J48" s="37"/>
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
@@ -2994,9 +2992,9 @@
     </row>
     <row r="49">
       <c r="A49" s="1"/>
-      <c r="B49" s="44"/>
-      <c r="C49" s="45"/>
-      <c r="D49" s="45"/>
+      <c r="B49" s="43"/>
+      <c r="C49" s="44"/>
+      <c r="D49" s="44"/>
       <c r="E49" s="38"/>
       <c r="F49" s="38"/>
       <c r="G49" s="38"/>
@@ -3024,14 +3022,14 @@
     </row>
     <row r="50">
       <c r="A50" s="1"/>
-      <c r="B50" s="46"/>
-      <c r="C50" s="47"/>
-      <c r="D50" s="47"/>
+      <c r="B50" s="45"/>
+      <c r="C50" s="46"/>
+      <c r="D50" s="46"/>
       <c r="E50" s="37"/>
       <c r="F50" s="37"/>
       <c r="G50" s="37"/>
       <c r="H50" s="37"/>
-      <c r="I50" s="43"/>
+      <c r="I50" s="42"/>
       <c r="J50" s="37"/>
       <c r="K50" s="1"/>
       <c r="L50" s="1"/>
@@ -3054,9 +3052,9 @@
     </row>
     <row r="51">
       <c r="A51" s="1"/>
-      <c r="B51" s="44"/>
-      <c r="C51" s="45"/>
-      <c r="D51" s="45"/>
+      <c r="B51" s="43"/>
+      <c r="C51" s="44"/>
+      <c r="D51" s="44"/>
       <c r="E51" s="38"/>
       <c r="F51" s="38"/>
       <c r="G51" s="38"/>
@@ -3084,14 +3082,14 @@
     </row>
     <row r="52">
       <c r="A52" s="1"/>
-      <c r="B52" s="46"/>
-      <c r="C52" s="47"/>
-      <c r="D52" s="47"/>
+      <c r="B52" s="45"/>
+      <c r="C52" s="46"/>
+      <c r="D52" s="46"/>
       <c r="E52" s="37"/>
       <c r="F52" s="37"/>
       <c r="G52" s="37"/>
       <c r="H52" s="37"/>
-      <c r="I52" s="43"/>
+      <c r="I52" s="42"/>
       <c r="J52" s="37"/>
       <c r="K52" s="1"/>
       <c r="L52" s="1"/>
@@ -3114,9 +3112,9 @@
     </row>
     <row r="53">
       <c r="A53" s="1"/>
-      <c r="B53" s="44"/>
-      <c r="C53" s="45"/>
-      <c r="D53" s="45"/>
+      <c r="B53" s="43"/>
+      <c r="C53" s="44"/>
+      <c r="D53" s="44"/>
       <c r="E53" s="38"/>
       <c r="F53" s="38"/>
       <c r="G53" s="38"/>
@@ -3144,14 +3142,14 @@
     </row>
     <row r="54">
       <c r="A54" s="1"/>
-      <c r="B54" s="46"/>
-      <c r="C54" s="47"/>
-      <c r="D54" s="47"/>
+      <c r="B54" s="45"/>
+      <c r="C54" s="46"/>
+      <c r="D54" s="46"/>
       <c r="E54" s="37"/>
       <c r="F54" s="37"/>
       <c r="G54" s="37"/>
       <c r="H54" s="37"/>
-      <c r="I54" s="43"/>
+      <c r="I54" s="42"/>
       <c r="J54" s="37"/>
       <c r="K54" s="1"/>
       <c r="L54" s="1"/>
@@ -3174,9 +3172,9 @@
     </row>
     <row r="55">
       <c r="A55" s="1"/>
-      <c r="B55" s="44"/>
-      <c r="C55" s="45"/>
-      <c r="D55" s="45"/>
+      <c r="B55" s="43"/>
+      <c r="C55" s="44"/>
+      <c r="D55" s="44"/>
       <c r="E55" s="38"/>
       <c r="F55" s="38"/>
       <c r="G55" s="38"/>
@@ -3204,14 +3202,14 @@
     </row>
     <row r="56">
       <c r="A56" s="1"/>
-      <c r="B56" s="46"/>
-      <c r="C56" s="47"/>
-      <c r="D56" s="47"/>
+      <c r="B56" s="45"/>
+      <c r="C56" s="46"/>
+      <c r="D56" s="46"/>
       <c r="E56" s="37"/>
       <c r="F56" s="37"/>
       <c r="G56" s="37"/>
       <c r="H56" s="37"/>
-      <c r="I56" s="43"/>
+      <c r="I56" s="42"/>
       <c r="J56" s="37"/>
       <c r="K56" s="1"/>
       <c r="L56" s="1"/>
@@ -3234,9 +3232,9 @@
     </row>
     <row r="57">
       <c r="A57" s="1"/>
-      <c r="B57" s="44"/>
-      <c r="C57" s="45"/>
-      <c r="D57" s="45"/>
+      <c r="B57" s="43"/>
+      <c r="C57" s="44"/>
+      <c r="D57" s="44"/>
       <c r="E57" s="38"/>
       <c r="F57" s="38"/>
       <c r="G57" s="38"/>
@@ -3264,14 +3262,14 @@
     </row>
     <row r="58">
       <c r="A58" s="1"/>
-      <c r="B58" s="46"/>
-      <c r="C58" s="47"/>
-      <c r="D58" s="47"/>
+      <c r="B58" s="45"/>
+      <c r="C58" s="46"/>
+      <c r="D58" s="46"/>
       <c r="E58" s="37"/>
       <c r="F58" s="37"/>
       <c r="G58" s="37"/>
       <c r="H58" s="37"/>
-      <c r="I58" s="43"/>
+      <c r="I58" s="42"/>
       <c r="J58" s="37"/>
       <c r="K58" s="1"/>
       <c r="L58" s="1"/>
@@ -3294,9 +3292,9 @@
     </row>
     <row r="59">
       <c r="A59" s="1"/>
-      <c r="B59" s="44"/>
-      <c r="C59" s="45"/>
-      <c r="D59" s="45"/>
+      <c r="B59" s="43"/>
+      <c r="C59" s="44"/>
+      <c r="D59" s="44"/>
       <c r="E59" s="38"/>
       <c r="F59" s="38"/>
       <c r="G59" s="38"/>
@@ -3324,14 +3322,14 @@
     </row>
     <row r="60">
       <c r="A60" s="1"/>
-      <c r="B60" s="46"/>
-      <c r="C60" s="47"/>
-      <c r="D60" s="47"/>
+      <c r="B60" s="45"/>
+      <c r="C60" s="46"/>
+      <c r="D60" s="46"/>
       <c r="E60" s="37"/>
       <c r="F60" s="37"/>
       <c r="G60" s="37"/>
       <c r="H60" s="37"/>
-      <c r="I60" s="43"/>
+      <c r="I60" s="42"/>
       <c r="J60" s="37"/>
       <c r="K60" s="1"/>
       <c r="L60" s="1"/>
@@ -3354,9 +3352,9 @@
     </row>
     <row r="61">
       <c r="A61" s="1"/>
-      <c r="B61" s="44"/>
-      <c r="C61" s="45"/>
-      <c r="D61" s="45"/>
+      <c r="B61" s="43"/>
+      <c r="C61" s="44"/>
+      <c r="D61" s="44"/>
       <c r="E61" s="38"/>
       <c r="F61" s="38"/>
       <c r="G61" s="38"/>
@@ -3384,14 +3382,14 @@
     </row>
     <row r="62">
       <c r="A62" s="1"/>
-      <c r="B62" s="46"/>
-      <c r="C62" s="47"/>
-      <c r="D62" s="47"/>
+      <c r="B62" s="45"/>
+      <c r="C62" s="46"/>
+      <c r="D62" s="46"/>
       <c r="E62" s="37"/>
       <c r="F62" s="37"/>
       <c r="G62" s="37"/>
       <c r="H62" s="37"/>
-      <c r="I62" s="43"/>
+      <c r="I62" s="42"/>
       <c r="J62" s="37"/>
       <c r="K62" s="1"/>
       <c r="L62" s="1"/>
@@ -3414,9 +3412,9 @@
     </row>
     <row r="63">
       <c r="A63" s="1"/>
-      <c r="B63" s="44"/>
-      <c r="C63" s="45"/>
-      <c r="D63" s="45"/>
+      <c r="B63" s="43"/>
+      <c r="C63" s="44"/>
+      <c r="D63" s="44"/>
       <c r="E63" s="38"/>
       <c r="F63" s="38"/>
       <c r="G63" s="38"/>
@@ -3444,14 +3442,14 @@
     </row>
     <row r="64">
       <c r="A64" s="1"/>
-      <c r="B64" s="46"/>
-      <c r="C64" s="47"/>
-      <c r="D64" s="47"/>
+      <c r="B64" s="45"/>
+      <c r="C64" s="46"/>
+      <c r="D64" s="46"/>
       <c r="E64" s="37"/>
       <c r="F64" s="37"/>
       <c r="G64" s="37"/>
       <c r="H64" s="37"/>
-      <c r="I64" s="43"/>
+      <c r="I64" s="42"/>
       <c r="J64" s="37"/>
       <c r="K64" s="1"/>
       <c r="L64" s="1"/>
@@ -3474,9 +3472,9 @@
     </row>
     <row r="65">
       <c r="A65" s="1"/>
-      <c r="B65" s="44"/>
-      <c r="C65" s="45"/>
-      <c r="D65" s="45"/>
+      <c r="B65" s="43"/>
+      <c r="C65" s="44"/>
+      <c r="D65" s="44"/>
       <c r="E65" s="38"/>
       <c r="F65" s="38"/>
       <c r="G65" s="38"/>
@@ -3504,14 +3502,14 @@
     </row>
     <row r="66">
       <c r="A66" s="1"/>
-      <c r="B66" s="46"/>
-      <c r="C66" s="47"/>
-      <c r="D66" s="47"/>
+      <c r="B66" s="45"/>
+      <c r="C66" s="46"/>
+      <c r="D66" s="46"/>
       <c r="E66" s="37"/>
       <c r="F66" s="37"/>
       <c r="G66" s="37"/>
       <c r="H66" s="37"/>
-      <c r="I66" s="43"/>
+      <c r="I66" s="42"/>
       <c r="J66" s="37"/>
       <c r="K66" s="1"/>
       <c r="L66" s="1"/>
@@ -3534,9 +3532,9 @@
     </row>
     <row r="67">
       <c r="A67" s="1"/>
-      <c r="B67" s="44"/>
-      <c r="C67" s="45"/>
-      <c r="D67" s="45"/>
+      <c r="B67" s="43"/>
+      <c r="C67" s="44"/>
+      <c r="D67" s="44"/>
       <c r="E67" s="38"/>
       <c r="F67" s="38"/>
       <c r="G67" s="38"/>
@@ -3564,14 +3562,14 @@
     </row>
     <row r="68">
       <c r="A68" s="1"/>
-      <c r="B68" s="46"/>
-      <c r="C68" s="47"/>
-      <c r="D68" s="47"/>
+      <c r="B68" s="45"/>
+      <c r="C68" s="46"/>
+      <c r="D68" s="46"/>
       <c r="E68" s="37"/>
       <c r="F68" s="37"/>
       <c r="G68" s="37"/>
       <c r="H68" s="37"/>
-      <c r="I68" s="43"/>
+      <c r="I68" s="42"/>
       <c r="J68" s="37"/>
       <c r="K68" s="1"/>
       <c r="L68" s="1"/>
@@ -3594,9 +3592,9 @@
     </row>
     <row r="69">
       <c r="A69" s="1"/>
-      <c r="B69" s="44"/>
-      <c r="C69" s="45"/>
-      <c r="D69" s="45"/>
+      <c r="B69" s="43"/>
+      <c r="C69" s="44"/>
+      <c r="D69" s="44"/>
       <c r="E69" s="38"/>
       <c r="F69" s="38"/>
       <c r="G69" s="38"/>
@@ -3624,14 +3622,14 @@
     </row>
     <row r="70">
       <c r="A70" s="1"/>
-      <c r="B70" s="46"/>
-      <c r="C70" s="47"/>
-      <c r="D70" s="47"/>
+      <c r="B70" s="45"/>
+      <c r="C70" s="46"/>
+      <c r="D70" s="46"/>
       <c r="E70" s="37"/>
       <c r="F70" s="37"/>
       <c r="G70" s="37"/>
       <c r="H70" s="37"/>
-      <c r="I70" s="43"/>
+      <c r="I70" s="42"/>
       <c r="J70" s="37"/>
       <c r="K70" s="1"/>
       <c r="L70" s="1"/>
@@ -3654,14 +3652,14 @@
     </row>
     <row r="71">
       <c r="A71" s="1"/>
-      <c r="B71" s="48"/>
-      <c r="C71" s="49"/>
-      <c r="D71" s="49"/>
-      <c r="E71" s="50"/>
-      <c r="F71" s="50"/>
-      <c r="G71" s="50"/>
-      <c r="H71" s="50"/>
-      <c r="I71" s="51"/>
+      <c r="B71" s="47"/>
+      <c r="C71" s="48"/>
+      <c r="D71" s="48"/>
+      <c r="E71" s="49"/>
+      <c r="F71" s="49"/>
+      <c r="G71" s="49"/>
+      <c r="H71" s="49"/>
+      <c r="I71" s="50"/>
       <c r="J71" s="38"/>
       <c r="K71" s="1"/>
       <c r="L71" s="1"/>
@@ -3684,14 +3682,14 @@
     </row>
     <row r="72">
       <c r="A72" s="1"/>
-      <c r="B72" s="52"/>
-      <c r="C72" s="53"/>
-      <c r="D72" s="53"/>
-      <c r="E72" s="54"/>
-      <c r="F72" s="54"/>
-      <c r="G72" s="54"/>
-      <c r="H72" s="54"/>
-      <c r="I72" s="55"/>
+      <c r="B72" s="51"/>
+      <c r="C72" s="52"/>
+      <c r="D72" s="52"/>
+      <c r="E72" s="53"/>
+      <c r="F72" s="53"/>
+      <c r="G72" s="53"/>
+      <c r="H72" s="53"/>
+      <c r="I72" s="54"/>
       <c r="J72" s="37"/>
       <c r="K72" s="1"/>
       <c r="L72" s="1"/>
@@ -3714,14 +3712,14 @@
     </row>
     <row r="73">
       <c r="A73" s="1"/>
-      <c r="B73" s="48"/>
-      <c r="C73" s="49"/>
-      <c r="D73" s="49"/>
-      <c r="E73" s="50"/>
-      <c r="F73" s="50"/>
-      <c r="G73" s="50"/>
-      <c r="H73" s="50"/>
-      <c r="I73" s="51"/>
+      <c r="B73" s="47"/>
+      <c r="C73" s="48"/>
+      <c r="D73" s="48"/>
+      <c r="E73" s="49"/>
+      <c r="F73" s="49"/>
+      <c r="G73" s="49"/>
+      <c r="H73" s="49"/>
+      <c r="I73" s="50"/>
       <c r="J73" s="38"/>
       <c r="K73" s="1"/>
       <c r="L73" s="1"/>
@@ -3744,14 +3742,14 @@
     </row>
     <row r="74">
       <c r="A74" s="1"/>
-      <c r="B74" s="52"/>
-      <c r="C74" s="53"/>
-      <c r="D74" s="53"/>
-      <c r="E74" s="54"/>
-      <c r="F74" s="54"/>
-      <c r="G74" s="54"/>
-      <c r="H74" s="54"/>
-      <c r="I74" s="55"/>
+      <c r="B74" s="51"/>
+      <c r="C74" s="52"/>
+      <c r="D74" s="52"/>
+      <c r="E74" s="53"/>
+      <c r="F74" s="53"/>
+      <c r="G74" s="53"/>
+      <c r="H74" s="53"/>
+      <c r="I74" s="54"/>
       <c r="J74" s="37"/>
       <c r="K74" s="1"/>
       <c r="L74" s="1"/>
@@ -3774,14 +3772,14 @@
     </row>
     <row r="75">
       <c r="A75" s="1"/>
-      <c r="B75" s="48"/>
-      <c r="C75" s="49"/>
-      <c r="D75" s="49"/>
-      <c r="E75" s="50"/>
-      <c r="F75" s="50"/>
-      <c r="G75" s="50"/>
-      <c r="H75" s="50"/>
-      <c r="I75" s="51"/>
+      <c r="B75" s="47"/>
+      <c r="C75" s="48"/>
+      <c r="D75" s="48"/>
+      <c r="E75" s="49"/>
+      <c r="F75" s="49"/>
+      <c r="G75" s="49"/>
+      <c r="H75" s="49"/>
+      <c r="I75" s="50"/>
       <c r="J75" s="38"/>
       <c r="K75" s="1"/>
       <c r="L75" s="1"/>
@@ -3804,14 +3802,14 @@
     </row>
     <row r="76">
       <c r="A76" s="1"/>
-      <c r="B76" s="52"/>
-      <c r="C76" s="53"/>
-      <c r="D76" s="53"/>
-      <c r="E76" s="54"/>
-      <c r="F76" s="54"/>
-      <c r="G76" s="54"/>
-      <c r="H76" s="54"/>
-      <c r="I76" s="55"/>
+      <c r="B76" s="51"/>
+      <c r="C76" s="52"/>
+      <c r="D76" s="52"/>
+      <c r="E76" s="53"/>
+      <c r="F76" s="53"/>
+      <c r="G76" s="53"/>
+      <c r="H76" s="53"/>
+      <c r="I76" s="54"/>
       <c r="J76" s="37"/>
       <c r="K76" s="1"/>
       <c r="L76" s="1"/>
@@ -3834,14 +3832,14 @@
     </row>
     <row r="77">
       <c r="A77" s="1"/>
-      <c r="B77" s="48"/>
-      <c r="C77" s="49"/>
-      <c r="D77" s="49"/>
-      <c r="E77" s="50"/>
-      <c r="F77" s="50"/>
-      <c r="G77" s="50"/>
-      <c r="H77" s="50"/>
-      <c r="I77" s="51"/>
+      <c r="B77" s="47"/>
+      <c r="C77" s="48"/>
+      <c r="D77" s="48"/>
+      <c r="E77" s="49"/>
+      <c r="F77" s="49"/>
+      <c r="G77" s="49"/>
+      <c r="H77" s="49"/>
+      <c r="I77" s="50"/>
       <c r="J77" s="38"/>
       <c r="K77" s="1"/>
       <c r="L77" s="1"/>
@@ -3864,14 +3862,14 @@
     </row>
     <row r="78">
       <c r="A78" s="1"/>
-      <c r="B78" s="52"/>
-      <c r="C78" s="53"/>
-      <c r="D78" s="53"/>
-      <c r="E78" s="54"/>
-      <c r="F78" s="54"/>
-      <c r="G78" s="54"/>
-      <c r="H78" s="54"/>
-      <c r="I78" s="55"/>
+      <c r="B78" s="51"/>
+      <c r="C78" s="52"/>
+      <c r="D78" s="52"/>
+      <c r="E78" s="53"/>
+      <c r="F78" s="53"/>
+      <c r="G78" s="53"/>
+      <c r="H78" s="53"/>
+      <c r="I78" s="54"/>
       <c r="J78" s="37"/>
       <c r="K78" s="1"/>
       <c r="L78" s="1"/>
@@ -3894,14 +3892,14 @@
     </row>
     <row r="79">
       <c r="A79" s="1"/>
-      <c r="B79" s="48"/>
-      <c r="C79" s="49"/>
-      <c r="D79" s="49"/>
-      <c r="E79" s="50"/>
-      <c r="F79" s="50"/>
-      <c r="G79" s="50"/>
-      <c r="H79" s="50"/>
-      <c r="I79" s="51"/>
+      <c r="B79" s="47"/>
+      <c r="C79" s="48"/>
+      <c r="D79" s="48"/>
+      <c r="E79" s="49"/>
+      <c r="F79" s="49"/>
+      <c r="G79" s="49"/>
+      <c r="H79" s="49"/>
+      <c r="I79" s="50"/>
       <c r="J79" s="38"/>
       <c r="K79" s="1"/>
       <c r="L79" s="1"/>
@@ -3924,14 +3922,14 @@
     </row>
     <row r="80">
       <c r="A80" s="1"/>
-      <c r="B80" s="52"/>
-      <c r="C80" s="53"/>
-      <c r="D80" s="53"/>
-      <c r="E80" s="54"/>
-      <c r="F80" s="54"/>
-      <c r="G80" s="54"/>
-      <c r="H80" s="54"/>
-      <c r="I80" s="55"/>
+      <c r="B80" s="51"/>
+      <c r="C80" s="52"/>
+      <c r="D80" s="52"/>
+      <c r="E80" s="53"/>
+      <c r="F80" s="53"/>
+      <c r="G80" s="53"/>
+      <c r="H80" s="53"/>
+      <c r="I80" s="54"/>
       <c r="J80" s="37"/>
       <c r="K80" s="1"/>
       <c r="L80" s="1"/>
@@ -3954,15 +3952,15 @@
     </row>
     <row r="81">
       <c r="A81" s="1"/>
-      <c r="B81" s="56"/>
-      <c r="C81" s="57"/>
-      <c r="D81" s="57"/>
-      <c r="E81" s="58"/>
-      <c r="F81" s="58"/>
-      <c r="G81" s="58"/>
-      <c r="H81" s="58"/>
-      <c r="I81" s="59"/>
-      <c r="J81" s="58"/>
+      <c r="B81" s="55"/>
+      <c r="C81" s="56"/>
+      <c r="D81" s="56"/>
+      <c r="E81" s="57"/>
+      <c r="F81" s="57"/>
+      <c r="G81" s="57"/>
+      <c r="H81" s="57"/>
+      <c r="I81" s="58"/>
+      <c r="J81" s="57"/>
       <c r="K81" s="1"/>
       <c r="L81" s="1"/>
       <c r="M81" s="1"/>
@@ -33014,8 +33012,10 @@
     <hyperlink r:id="rId93" ref="I32"/>
     <hyperlink r:id="rId94" ref="J32"/>
     <hyperlink r:id="rId95" ref="F33"/>
-    <hyperlink r:id="rId96" ref="F34"/>
+    <hyperlink r:id="rId96" ref="I33"/>
+    <hyperlink r:id="rId97" ref="J33"/>
+    <hyperlink r:id="rId98" ref="F34"/>
   </hyperlinks>
-  <drawing r:id="rId97"/>
+  <drawing r:id="rId99"/>
 </worksheet>
 </file>
--- a/Lý nâng cao/Thư viện bài học.xlsx
+++ b/Lý nâng cao/Thư viện bài học.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="140">
   <si>
     <t>THƯ VIỆN BÀI HỌC - VẬT LÝ 12</t>
   </si>
@@ -426,6 +426,44 @@
     <t>Đề 10
 Đề 11</t>
   </si>
+  <si>
+    <t>VIDEO Buổi 29</t>
+  </si>
+  <si>
+    <t>File note Buổi 29</t>
+  </si>
+  <si>
+    <t>Đề 12
+Đề 13</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Times New Roman"/>
+        <color rgb="FF1155CC"/>
+        <sz val="11.0"/>
+        <u/>
+      </rPr>
+      <t>Đề 12</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Times New Roman"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Times New Roman"/>
+        <color rgb="FF1155CC"/>
+        <sz val="11.0"/>
+        <u/>
+      </rPr>
+      <t>Đề 13</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -822,6 +860,12 @@
     <xf borderId="5" fillId="5" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
+    <xf borderId="5" fillId="5" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="5" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
     <xf borderId="6" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
@@ -829,12 +873,6 @@
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="5" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="5" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="7" fillId="4" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
@@ -2533,7 +2571,7 @@
     <row r="34">
       <c r="A34" s="1"/>
       <c r="B34" s="15">
-        <v>45088.0</v>
+        <v>45092.0</v>
       </c>
       <c r="C34" s="16">
         <v>29.0</v>
@@ -2549,8 +2587,12 @@
       </c>
       <c r="G34" s="37"/>
       <c r="H34" s="37"/>
-      <c r="I34" s="42"/>
-      <c r="J34" s="37"/>
+      <c r="I34" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="J34" s="18" t="s">
+        <v>137</v>
+      </c>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
@@ -2572,11 +2614,21 @@
     </row>
     <row r="35">
       <c r="A35" s="1"/>
-      <c r="B35" s="43"/>
-      <c r="C35" s="44"/>
-      <c r="D35" s="44"/>
-      <c r="E35" s="38"/>
-      <c r="F35" s="38"/>
+      <c r="B35" s="22">
+        <v>45095.0</v>
+      </c>
+      <c r="C35" s="23">
+        <v>30.0</v>
+      </c>
+      <c r="D35" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="E35" s="24" t="s">
+        <v>138</v>
+      </c>
+      <c r="F35" s="25" t="s">
+        <v>139</v>
+      </c>
       <c r="G35" s="38"/>
       <c r="H35" s="38"/>
       <c r="I35" s="39"/>
@@ -2602,14 +2654,14 @@
     </row>
     <row r="36">
       <c r="A36" s="1"/>
-      <c r="B36" s="45"/>
-      <c r="C36" s="46"/>
-      <c r="D36" s="46"/>
+      <c r="B36" s="42"/>
+      <c r="C36" s="43"/>
+      <c r="D36" s="43"/>
       <c r="E36" s="37"/>
       <c r="F36" s="37"/>
       <c r="G36" s="37"/>
       <c r="H36" s="37"/>
-      <c r="I36" s="42"/>
+      <c r="I36" s="44"/>
       <c r="J36" s="37"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
@@ -2632,9 +2684,9 @@
     </row>
     <row r="37">
       <c r="A37" s="1"/>
-      <c r="B37" s="43"/>
-      <c r="C37" s="44"/>
-      <c r="D37" s="44"/>
+      <c r="B37" s="45"/>
+      <c r="C37" s="46"/>
+      <c r="D37" s="46"/>
       <c r="E37" s="38"/>
       <c r="F37" s="38"/>
       <c r="G37" s="38"/>
@@ -2662,14 +2714,14 @@
     </row>
     <row r="38">
       <c r="A38" s="1"/>
-      <c r="B38" s="45"/>
-      <c r="C38" s="46"/>
-      <c r="D38" s="46"/>
+      <c r="B38" s="42"/>
+      <c r="C38" s="43"/>
+      <c r="D38" s="43"/>
       <c r="E38" s="37"/>
       <c r="F38" s="37"/>
       <c r="G38" s="37"/>
       <c r="H38" s="37"/>
-      <c r="I38" s="42"/>
+      <c r="I38" s="44"/>
       <c r="J38" s="37"/>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
@@ -2692,9 +2744,9 @@
     </row>
     <row r="39">
       <c r="A39" s="1"/>
-      <c r="B39" s="43"/>
-      <c r="C39" s="44"/>
-      <c r="D39" s="44"/>
+      <c r="B39" s="45"/>
+      <c r="C39" s="46"/>
+      <c r="D39" s="46"/>
       <c r="E39" s="38"/>
       <c r="F39" s="38"/>
       <c r="G39" s="38"/>
@@ -2722,14 +2774,14 @@
     </row>
     <row r="40">
       <c r="A40" s="1"/>
-      <c r="B40" s="45"/>
-      <c r="C40" s="46"/>
-      <c r="D40" s="46"/>
+      <c r="B40" s="42"/>
+      <c r="C40" s="43"/>
+      <c r="D40" s="43"/>
       <c r="E40" s="37"/>
       <c r="F40" s="37"/>
       <c r="G40" s="37"/>
       <c r="H40" s="37"/>
-      <c r="I40" s="42"/>
+      <c r="I40" s="44"/>
       <c r="J40" s="37"/>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
@@ -2752,9 +2804,9 @@
     </row>
     <row r="41">
       <c r="A41" s="1"/>
-      <c r="B41" s="43"/>
-      <c r="C41" s="44"/>
-      <c r="D41" s="44"/>
+      <c r="B41" s="45"/>
+      <c r="C41" s="46"/>
+      <c r="D41" s="46"/>
       <c r="E41" s="38"/>
       <c r="F41" s="38"/>
       <c r="G41" s="38"/>
@@ -2782,14 +2834,14 @@
     </row>
     <row r="42">
       <c r="A42" s="1"/>
-      <c r="B42" s="45"/>
-      <c r="C42" s="46"/>
-      <c r="D42" s="46"/>
+      <c r="B42" s="42"/>
+      <c r="C42" s="43"/>
+      <c r="D42" s="43"/>
       <c r="E42" s="37"/>
       <c r="F42" s="37"/>
       <c r="G42" s="37"/>
       <c r="H42" s="37"/>
-      <c r="I42" s="42"/>
+      <c r="I42" s="44"/>
       <c r="J42" s="37"/>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
@@ -2812,9 +2864,9 @@
     </row>
     <row r="43">
       <c r="A43" s="1"/>
-      <c r="B43" s="43"/>
-      <c r="C43" s="44"/>
-      <c r="D43" s="44"/>
+      <c r="B43" s="45"/>
+      <c r="C43" s="46"/>
+      <c r="D43" s="46"/>
       <c r="E43" s="38"/>
       <c r="F43" s="38"/>
       <c r="G43" s="38"/>
@@ -2842,14 +2894,14 @@
     </row>
     <row r="44">
       <c r="A44" s="1"/>
-      <c r="B44" s="45"/>
-      <c r="C44" s="46"/>
-      <c r="D44" s="46"/>
+      <c r="B44" s="42"/>
+      <c r="C44" s="43"/>
+      <c r="D44" s="43"/>
       <c r="E44" s="37"/>
       <c r="F44" s="37"/>
       <c r="G44" s="37"/>
       <c r="H44" s="37"/>
-      <c r="I44" s="42"/>
+      <c r="I44" s="44"/>
       <c r="J44" s="37"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
@@ -2872,9 +2924,9 @@
     </row>
     <row r="45">
       <c r="A45" s="1"/>
-      <c r="B45" s="43"/>
-      <c r="C45" s="44"/>
-      <c r="D45" s="44"/>
+      <c r="B45" s="45"/>
+      <c r="C45" s="46"/>
+      <c r="D45" s="46"/>
       <c r="E45" s="38"/>
       <c r="F45" s="38"/>
       <c r="G45" s="38"/>
@@ -2902,14 +2954,14 @@
     </row>
     <row r="46">
       <c r="A46" s="1"/>
-      <c r="B46" s="45"/>
-      <c r="C46" s="46"/>
-      <c r="D46" s="46"/>
+      <c r="B46" s="42"/>
+      <c r="C46" s="43"/>
+      <c r="D46" s="43"/>
       <c r="E46" s="37"/>
       <c r="F46" s="37"/>
       <c r="G46" s="37"/>
       <c r="H46" s="37"/>
-      <c r="I46" s="42"/>
+      <c r="I46" s="44"/>
       <c r="J46" s="37"/>
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
@@ -2932,9 +2984,9 @@
     </row>
     <row r="47">
       <c r="A47" s="1"/>
-      <c r="B47" s="43"/>
-      <c r="C47" s="44"/>
-      <c r="D47" s="44"/>
+      <c r="B47" s="45"/>
+      <c r="C47" s="46"/>
+      <c r="D47" s="46"/>
       <c r="E47" s="38"/>
       <c r="F47" s="38"/>
       <c r="G47" s="38"/>
@@ -2962,14 +3014,14 @@
     </row>
     <row r="48">
       <c r="A48" s="1"/>
-      <c r="B48" s="45"/>
-      <c r="C48" s="46"/>
-      <c r="D48" s="46"/>
+      <c r="B48" s="42"/>
+      <c r="C48" s="43"/>
+      <c r="D48" s="43"/>
       <c r="E48" s="37"/>
       <c r="F48" s="37"/>
       <c r="G48" s="37"/>
       <c r="H48" s="37"/>
-      <c r="I48" s="42"/>
+      <c r="I48" s="44"/>
       <c r="J48" s="37"/>
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
@@ -2992,9 +3044,9 @@
     </row>
     <row r="49">
       <c r="A49" s="1"/>
-      <c r="B49" s="43"/>
-      <c r="C49" s="44"/>
-      <c r="D49" s="44"/>
+      <c r="B49" s="45"/>
+      <c r="C49" s="46"/>
+      <c r="D49" s="46"/>
       <c r="E49" s="38"/>
       <c r="F49" s="38"/>
       <c r="G49" s="38"/>
@@ -3022,14 +3074,14 @@
     </row>
     <row r="50">
       <c r="A50" s="1"/>
-      <c r="B50" s="45"/>
-      <c r="C50" s="46"/>
-      <c r="D50" s="46"/>
+      <c r="B50" s="42"/>
+      <c r="C50" s="43"/>
+      <c r="D50" s="43"/>
       <c r="E50" s="37"/>
       <c r="F50" s="37"/>
       <c r="G50" s="37"/>
       <c r="H50" s="37"/>
-      <c r="I50" s="42"/>
+      <c r="I50" s="44"/>
       <c r="J50" s="37"/>
       <c r="K50" s="1"/>
       <c r="L50" s="1"/>
@@ -3052,9 +3104,9 @@
     </row>
     <row r="51">
       <c r="A51" s="1"/>
-      <c r="B51" s="43"/>
-      <c r="C51" s="44"/>
-      <c r="D51" s="44"/>
+      <c r="B51" s="45"/>
+      <c r="C51" s="46"/>
+      <c r="D51" s="46"/>
       <c r="E51" s="38"/>
       <c r="F51" s="38"/>
       <c r="G51" s="38"/>
@@ -3082,14 +3134,14 @@
     </row>
     <row r="52">
       <c r="A52" s="1"/>
-      <c r="B52" s="45"/>
-      <c r="C52" s="46"/>
-      <c r="D52" s="46"/>
+      <c r="B52" s="42"/>
+      <c r="C52" s="43"/>
+      <c r="D52" s="43"/>
       <c r="E52" s="37"/>
       <c r="F52" s="37"/>
       <c r="G52" s="37"/>
       <c r="H52" s="37"/>
-      <c r="I52" s="42"/>
+      <c r="I52" s="44"/>
       <c r="J52" s="37"/>
       <c r="K52" s="1"/>
       <c r="L52" s="1"/>
@@ -3112,9 +3164,9 @@
     </row>
     <row r="53">
       <c r="A53" s="1"/>
-      <c r="B53" s="43"/>
-      <c r="C53" s="44"/>
-      <c r="D53" s="44"/>
+      <c r="B53" s="45"/>
+      <c r="C53" s="46"/>
+      <c r="D53" s="46"/>
       <c r="E53" s="38"/>
       <c r="F53" s="38"/>
       <c r="G53" s="38"/>
@@ -3142,14 +3194,14 @@
     </row>
     <row r="54">
       <c r="A54" s="1"/>
-      <c r="B54" s="45"/>
-      <c r="C54" s="46"/>
-      <c r="D54" s="46"/>
+      <c r="B54" s="42"/>
+      <c r="C54" s="43"/>
+      <c r="D54" s="43"/>
       <c r="E54" s="37"/>
       <c r="F54" s="37"/>
       <c r="G54" s="37"/>
       <c r="H54" s="37"/>
-      <c r="I54" s="42"/>
+      <c r="I54" s="44"/>
       <c r="J54" s="37"/>
       <c r="K54" s="1"/>
       <c r="L54" s="1"/>
@@ -3172,9 +3224,9 @@
     </row>
     <row r="55">
       <c r="A55" s="1"/>
-      <c r="B55" s="43"/>
-      <c r="C55" s="44"/>
-      <c r="D55" s="44"/>
+      <c r="B55" s="45"/>
+      <c r="C55" s="46"/>
+      <c r="D55" s="46"/>
       <c r="E55" s="38"/>
       <c r="F55" s="38"/>
       <c r="G55" s="38"/>
@@ -3202,14 +3254,14 @@
     </row>
     <row r="56">
       <c r="A56" s="1"/>
-      <c r="B56" s="45"/>
-      <c r="C56" s="46"/>
-      <c r="D56" s="46"/>
+      <c r="B56" s="42"/>
+      <c r="C56" s="43"/>
+      <c r="D56" s="43"/>
       <c r="E56" s="37"/>
       <c r="F56" s="37"/>
       <c r="G56" s="37"/>
       <c r="H56" s="37"/>
-      <c r="I56" s="42"/>
+      <c r="I56" s="44"/>
       <c r="J56" s="37"/>
       <c r="K56" s="1"/>
       <c r="L56" s="1"/>
@@ -3232,9 +3284,9 @@
     </row>
     <row r="57">
       <c r="A57" s="1"/>
-      <c r="B57" s="43"/>
-      <c r="C57" s="44"/>
-      <c r="D57" s="44"/>
+      <c r="B57" s="45"/>
+      <c r="C57" s="46"/>
+      <c r="D57" s="46"/>
       <c r="E57" s="38"/>
       <c r="F57" s="38"/>
       <c r="G57" s="38"/>
@@ -3262,14 +3314,14 @@
     </row>
     <row r="58">
       <c r="A58" s="1"/>
-      <c r="B58" s="45"/>
-      <c r="C58" s="46"/>
-      <c r="D58" s="46"/>
+      <c r="B58" s="42"/>
+      <c r="C58" s="43"/>
+      <c r="D58" s="43"/>
       <c r="E58" s="37"/>
       <c r="F58" s="37"/>
       <c r="G58" s="37"/>
       <c r="H58" s="37"/>
-      <c r="I58" s="42"/>
+      <c r="I58" s="44"/>
       <c r="J58" s="37"/>
       <c r="K58" s="1"/>
       <c r="L58" s="1"/>
@@ -3292,9 +3344,9 @@
     </row>
     <row r="59">
       <c r="A59" s="1"/>
-      <c r="B59" s="43"/>
-      <c r="C59" s="44"/>
-      <c r="D59" s="44"/>
+      <c r="B59" s="45"/>
+      <c r="C59" s="46"/>
+      <c r="D59" s="46"/>
       <c r="E59" s="38"/>
       <c r="F59" s="38"/>
       <c r="G59" s="38"/>
@@ -3322,14 +3374,14 @@
     </row>
     <row r="60">
       <c r="A60" s="1"/>
-      <c r="B60" s="45"/>
-      <c r="C60" s="46"/>
-      <c r="D60" s="46"/>
+      <c r="B60" s="42"/>
+      <c r="C60" s="43"/>
+      <c r="D60" s="43"/>
       <c r="E60" s="37"/>
       <c r="F60" s="37"/>
       <c r="G60" s="37"/>
       <c r="H60" s="37"/>
-      <c r="I60" s="42"/>
+      <c r="I60" s="44"/>
       <c r="J60" s="37"/>
       <c r="K60" s="1"/>
       <c r="L60" s="1"/>
@@ -3352,9 +3404,9 @@
     </row>
     <row r="61">
       <c r="A61" s="1"/>
-      <c r="B61" s="43"/>
-      <c r="C61" s="44"/>
-      <c r="D61" s="44"/>
+      <c r="B61" s="45"/>
+      <c r="C61" s="46"/>
+      <c r="D61" s="46"/>
       <c r="E61" s="38"/>
       <c r="F61" s="38"/>
       <c r="G61" s="38"/>
@@ -3382,14 +3434,14 @@
     </row>
     <row r="62">
       <c r="A62" s="1"/>
-      <c r="B62" s="45"/>
-      <c r="C62" s="46"/>
-      <c r="D62" s="46"/>
+      <c r="B62" s="42"/>
+      <c r="C62" s="43"/>
+      <c r="D62" s="43"/>
       <c r="E62" s="37"/>
       <c r="F62" s="37"/>
       <c r="G62" s="37"/>
       <c r="H62" s="37"/>
-      <c r="I62" s="42"/>
+      <c r="I62" s="44"/>
       <c r="J62" s="37"/>
       <c r="K62" s="1"/>
       <c r="L62" s="1"/>
@@ -3412,9 +3464,9 @@
     </row>
     <row r="63">
       <c r="A63" s="1"/>
-      <c r="B63" s="43"/>
-      <c r="C63" s="44"/>
-      <c r="D63" s="44"/>
+      <c r="B63" s="45"/>
+      <c r="C63" s="46"/>
+      <c r="D63" s="46"/>
       <c r="E63" s="38"/>
       <c r="F63" s="38"/>
       <c r="G63" s="38"/>
@@ -3442,14 +3494,14 @@
     </row>
     <row r="64">
       <c r="A64" s="1"/>
-      <c r="B64" s="45"/>
-      <c r="C64" s="46"/>
-      <c r="D64" s="46"/>
+      <c r="B64" s="42"/>
+      <c r="C64" s="43"/>
+      <c r="D64" s="43"/>
       <c r="E64" s="37"/>
       <c r="F64" s="37"/>
       <c r="G64" s="37"/>
       <c r="H64" s="37"/>
-      <c r="I64" s="42"/>
+      <c r="I64" s="44"/>
       <c r="J64" s="37"/>
       <c r="K64" s="1"/>
       <c r="L64" s="1"/>
@@ -3472,9 +3524,9 @@
     </row>
     <row r="65">
       <c r="A65" s="1"/>
-      <c r="B65" s="43"/>
-      <c r="C65" s="44"/>
-      <c r="D65" s="44"/>
+      <c r="B65" s="45"/>
+      <c r="C65" s="46"/>
+      <c r="D65" s="46"/>
       <c r="E65" s="38"/>
       <c r="F65" s="38"/>
       <c r="G65" s="38"/>
@@ -3502,14 +3554,14 @@
     </row>
     <row r="66">
       <c r="A66" s="1"/>
-      <c r="B66" s="45"/>
-      <c r="C66" s="46"/>
-      <c r="D66" s="46"/>
+      <c r="B66" s="42"/>
+      <c r="C66" s="43"/>
+      <c r="D66" s="43"/>
       <c r="E66" s="37"/>
       <c r="F66" s="37"/>
       <c r="G66" s="37"/>
       <c r="H66" s="37"/>
-      <c r="I66" s="42"/>
+      <c r="I66" s="44"/>
       <c r="J66" s="37"/>
       <c r="K66" s="1"/>
       <c r="L66" s="1"/>
@@ -3532,9 +3584,9 @@
     </row>
     <row r="67">
       <c r="A67" s="1"/>
-      <c r="B67" s="43"/>
-      <c r="C67" s="44"/>
-      <c r="D67" s="44"/>
+      <c r="B67" s="45"/>
+      <c r="C67" s="46"/>
+      <c r="D67" s="46"/>
       <c r="E67" s="38"/>
       <c r="F67" s="38"/>
       <c r="G67" s="38"/>
@@ -3562,14 +3614,14 @@
     </row>
     <row r="68">
       <c r="A68" s="1"/>
-      <c r="B68" s="45"/>
-      <c r="C68" s="46"/>
-      <c r="D68" s="46"/>
+      <c r="B68" s="42"/>
+      <c r="C68" s="43"/>
+      <c r="D68" s="43"/>
       <c r="E68" s="37"/>
       <c r="F68" s="37"/>
       <c r="G68" s="37"/>
       <c r="H68" s="37"/>
-      <c r="I68" s="42"/>
+      <c r="I68" s="44"/>
       <c r="J68" s="37"/>
       <c r="K68" s="1"/>
       <c r="L68" s="1"/>
@@ -3592,9 +3644,9 @@
     </row>
     <row r="69">
       <c r="A69" s="1"/>
-      <c r="B69" s="43"/>
-      <c r="C69" s="44"/>
-      <c r="D69" s="44"/>
+      <c r="B69" s="45"/>
+      <c r="C69" s="46"/>
+      <c r="D69" s="46"/>
       <c r="E69" s="38"/>
       <c r="F69" s="38"/>
       <c r="G69" s="38"/>
@@ -3622,14 +3674,14 @@
     </row>
     <row r="70">
       <c r="A70" s="1"/>
-      <c r="B70" s="45"/>
-      <c r="C70" s="46"/>
-      <c r="D70" s="46"/>
+      <c r="B70" s="42"/>
+      <c r="C70" s="43"/>
+      <c r="D70" s="43"/>
       <c r="E70" s="37"/>
       <c r="F70" s="37"/>
       <c r="G70" s="37"/>
       <c r="H70" s="37"/>
-      <c r="I70" s="42"/>
+      <c r="I70" s="44"/>
       <c r="J70" s="37"/>
       <c r="K70" s="1"/>
       <c r="L70" s="1"/>
@@ -33015,7 +33067,10 @@
     <hyperlink r:id="rId96" ref="I33"/>
     <hyperlink r:id="rId97" ref="J33"/>
     <hyperlink r:id="rId98" ref="F34"/>
+    <hyperlink r:id="rId99" ref="I34"/>
+    <hyperlink r:id="rId100" ref="J34"/>
+    <hyperlink r:id="rId101" ref="F35"/>
   </hyperlinks>
-  <drawing r:id="rId99"/>
+  <drawing r:id="rId102"/>
 </worksheet>
 </file>
--- a/Lý nâng cao/Thư viện bài học.xlsx
+++ b/Lý nâng cao/Thư viện bài học.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="145">
   <si>
     <t>THƯ VIỆN BÀI HỌC - VẬT LÝ 12</t>
   </si>
@@ -464,6 +464,47 @@
       <t>Đề 13</t>
     </r>
   </si>
+  <si>
+    <t>VIDEO Buổi 30</t>
+  </si>
+  <si>
+    <t>File note Buổi 30</t>
+  </si>
+  <si>
+    <t>Đề 13
+Đề 14</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Times New Roman"/>
+        <color rgb="FF1155CC"/>
+        <sz val="11.0"/>
+        <u/>
+      </rPr>
+      <t>Đề 13</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Times New Roman"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Times New Roman"/>
+        <color rgb="FF1155CC"/>
+        <sz val="11.0"/>
+        <u/>
+      </rPr>
+      <t>Đề 14</t>
+    </r>
+  </si>
+  <si>
+    <t>THI TỐT NGHIỆP THPTQG</t>
+  </si>
 </sst>
 </file>
 
@@ -472,7 +513,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="M/d/yyyy"/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="19">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -575,8 +616,14 @@
       <color rgb="FF1155CC"/>
       <name val="Times New Roman"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -607,8 +654,14 @@
         <bgColor rgb="FFE8F0FE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="11">
     <border/>
     <border>
       <left style="medium">
@@ -699,35 +752,21 @@
       </right>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
     </border>
@@ -735,7 +774,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="47">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -860,57 +899,17 @@
     <xf borderId="5" fillId="5" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="5" fillId="5" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
     <xf borderId="6" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="5" fillId="4" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf borderId="0" fillId="6" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="5" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf borderId="6" fillId="6" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="7" fillId="4" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="7" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="7" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="9" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="7" fillId="5" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="7" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="7" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="9" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="10" fillId="4" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="10" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="10" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="11" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
+    <xf borderId="9" fillId="4" fontId="15" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="10" fillId="4" fontId="15" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -2631,8 +2630,12 @@
       </c>
       <c r="G35" s="38"/>
       <c r="H35" s="38"/>
-      <c r="I35" s="39"/>
-      <c r="J35" s="38"/>
+      <c r="I35" s="27" t="s">
+        <v>140</v>
+      </c>
+      <c r="J35" s="25" t="s">
+        <v>141</v>
+      </c>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
@@ -2654,14 +2657,24 @@
     </row>
     <row r="36">
       <c r="A36" s="1"/>
-      <c r="B36" s="42"/>
-      <c r="C36" s="43"/>
-      <c r="D36" s="43"/>
-      <c r="E36" s="37"/>
-      <c r="F36" s="37"/>
+      <c r="B36" s="15">
+        <v>45102.0</v>
+      </c>
+      <c r="C36" s="16">
+        <v>31.0</v>
+      </c>
+      <c r="D36" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="E36" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="F36" s="18" t="s">
+        <v>143</v>
+      </c>
       <c r="G36" s="37"/>
       <c r="H36" s="37"/>
-      <c r="I36" s="44"/>
+      <c r="I36" s="42"/>
       <c r="J36" s="37"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
@@ -2683,46 +2696,48 @@
       <c r="AB36" s="1"/>
     </row>
     <row r="37">
-      <c r="A37" s="1"/>
-      <c r="B37" s="45"/>
-      <c r="C37" s="46"/>
-      <c r="D37" s="46"/>
-      <c r="E37" s="38"/>
-      <c r="F37" s="38"/>
-      <c r="G37" s="38"/>
-      <c r="H37" s="38"/>
-      <c r="I37" s="39"/>
-      <c r="J37" s="38"/>
-      <c r="K37" s="1"/>
-      <c r="L37" s="1"/>
-      <c r="M37" s="1"/>
-      <c r="N37" s="1"/>
-      <c r="O37" s="1"/>
-      <c r="P37" s="1"/>
-      <c r="Q37" s="1"/>
-      <c r="R37" s="1"/>
-      <c r="S37" s="1"/>
-      <c r="T37" s="1"/>
-      <c r="U37" s="1"/>
-      <c r="V37" s="1"/>
-      <c r="W37" s="1"/>
-      <c r="X37" s="1"/>
-      <c r="Y37" s="1"/>
-      <c r="Z37" s="1"/>
-      <c r="AA37" s="1"/>
-      <c r="AB37" s="1"/>
+      <c r="A37" s="43"/>
+      <c r="B37" s="44" t="s">
+        <v>144</v>
+      </c>
+      <c r="C37" s="45"/>
+      <c r="D37" s="45"/>
+      <c r="E37" s="45"/>
+      <c r="F37" s="45"/>
+      <c r="G37" s="45"/>
+      <c r="H37" s="45"/>
+      <c r="I37" s="45"/>
+      <c r="J37" s="46"/>
+      <c r="K37" s="43"/>
+      <c r="L37" s="43"/>
+      <c r="M37" s="43"/>
+      <c r="N37" s="43"/>
+      <c r="O37" s="43"/>
+      <c r="P37" s="43"/>
+      <c r="Q37" s="43"/>
+      <c r="R37" s="43"/>
+      <c r="S37" s="43"/>
+      <c r="T37" s="43"/>
+      <c r="U37" s="43"/>
+      <c r="V37" s="43"/>
+      <c r="W37" s="43"/>
+      <c r="X37" s="43"/>
+      <c r="Y37" s="43"/>
+      <c r="Z37" s="43"/>
+      <c r="AA37" s="43"/>
+      <c r="AB37" s="43"/>
     </row>
     <row r="38">
       <c r="A38" s="1"/>
-      <c r="B38" s="42"/>
-      <c r="C38" s="43"/>
-      <c r="D38" s="43"/>
-      <c r="E38" s="37"/>
-      <c r="F38" s="37"/>
-      <c r="G38" s="37"/>
-      <c r="H38" s="37"/>
-      <c r="I38" s="44"/>
-      <c r="J38" s="37"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3"/>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
       <c r="M38" s="1"/>
@@ -2744,15 +2759,15 @@
     </row>
     <row r="39">
       <c r="A39" s="1"/>
-      <c r="B39" s="45"/>
-      <c r="C39" s="46"/>
-      <c r="D39" s="46"/>
-      <c r="E39" s="38"/>
-      <c r="F39" s="38"/>
-      <c r="G39" s="38"/>
-      <c r="H39" s="38"/>
-      <c r="I39" s="39"/>
-      <c r="J39" s="38"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3"/>
+      <c r="J39" s="3"/>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
       <c r="M39" s="1"/>
@@ -2774,15 +2789,15 @@
     </row>
     <row r="40">
       <c r="A40" s="1"/>
-      <c r="B40" s="42"/>
-      <c r="C40" s="43"/>
-      <c r="D40" s="43"/>
-      <c r="E40" s="37"/>
-      <c r="F40" s="37"/>
-      <c r="G40" s="37"/>
-      <c r="H40" s="37"/>
-      <c r="I40" s="44"/>
-      <c r="J40" s="37"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3"/>
+      <c r="J40" s="3"/>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
       <c r="M40" s="1"/>
@@ -2804,15 +2819,15 @@
     </row>
     <row r="41">
       <c r="A41" s="1"/>
-      <c r="B41" s="45"/>
-      <c r="C41" s="46"/>
-      <c r="D41" s="46"/>
-      <c r="E41" s="38"/>
-      <c r="F41" s="38"/>
-      <c r="G41" s="38"/>
-      <c r="H41" s="38"/>
-      <c r="I41" s="39"/>
-      <c r="J41" s="38"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3"/>
+      <c r="J41" s="3"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
       <c r="M41" s="1"/>
@@ -2834,15 +2849,15 @@
     </row>
     <row r="42">
       <c r="A42" s="1"/>
-      <c r="B42" s="42"/>
-      <c r="C42" s="43"/>
-      <c r="D42" s="43"/>
-      <c r="E42" s="37"/>
-      <c r="F42" s="37"/>
-      <c r="G42" s="37"/>
-      <c r="H42" s="37"/>
-      <c r="I42" s="44"/>
-      <c r="J42" s="37"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3"/>
+      <c r="I42" s="3"/>
+      <c r="J42" s="3"/>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
       <c r="M42" s="1"/>
@@ -2864,15 +2879,15 @@
     </row>
     <row r="43">
       <c r="A43" s="1"/>
-      <c r="B43" s="45"/>
-      <c r="C43" s="46"/>
-      <c r="D43" s="46"/>
-      <c r="E43" s="38"/>
-      <c r="F43" s="38"/>
-      <c r="G43" s="38"/>
-      <c r="H43" s="38"/>
-      <c r="I43" s="39"/>
-      <c r="J43" s="38"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="3"/>
+      <c r="I43" s="3"/>
+      <c r="J43" s="3"/>
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
       <c r="M43" s="1"/>
@@ -2894,15 +2909,15 @@
     </row>
     <row r="44">
       <c r="A44" s="1"/>
-      <c r="B44" s="42"/>
-      <c r="C44" s="43"/>
-      <c r="D44" s="43"/>
-      <c r="E44" s="37"/>
-      <c r="F44" s="37"/>
-      <c r="G44" s="37"/>
-      <c r="H44" s="37"/>
-      <c r="I44" s="44"/>
-      <c r="J44" s="37"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3"/>
+      <c r="I44" s="3"/>
+      <c r="J44" s="3"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
       <c r="M44" s="1"/>
@@ -2924,15 +2939,15 @@
     </row>
     <row r="45">
       <c r="A45" s="1"/>
-      <c r="B45" s="45"/>
-      <c r="C45" s="46"/>
-      <c r="D45" s="46"/>
-      <c r="E45" s="38"/>
-      <c r="F45" s="38"/>
-      <c r="G45" s="38"/>
-      <c r="H45" s="38"/>
-      <c r="I45" s="39"/>
-      <c r="J45" s="38"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="3"/>
+      <c r="I45" s="3"/>
+      <c r="J45" s="3"/>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
       <c r="M45" s="1"/>
@@ -2954,15 +2969,15 @@
     </row>
     <row r="46">
       <c r="A46" s="1"/>
-      <c r="B46" s="42"/>
-      <c r="C46" s="43"/>
-      <c r="D46" s="43"/>
-      <c r="E46" s="37"/>
-      <c r="F46" s="37"/>
-      <c r="G46" s="37"/>
-      <c r="H46" s="37"/>
-      <c r="I46" s="44"/>
-      <c r="J46" s="37"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="3"/>
+      <c r="I46" s="3"/>
+      <c r="J46" s="3"/>
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
       <c r="M46" s="1"/>
@@ -2984,15 +2999,15 @@
     </row>
     <row r="47">
       <c r="A47" s="1"/>
-      <c r="B47" s="45"/>
-      <c r="C47" s="46"/>
-      <c r="D47" s="46"/>
-      <c r="E47" s="38"/>
-      <c r="F47" s="38"/>
-      <c r="G47" s="38"/>
-      <c r="H47" s="38"/>
-      <c r="I47" s="39"/>
-      <c r="J47" s="38"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="3"/>
+      <c r="I47" s="3"/>
+      <c r="J47" s="3"/>
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
       <c r="M47" s="1"/>
@@ -3014,15 +3029,15 @@
     </row>
     <row r="48">
       <c r="A48" s="1"/>
-      <c r="B48" s="42"/>
-      <c r="C48" s="43"/>
-      <c r="D48" s="43"/>
-      <c r="E48" s="37"/>
-      <c r="F48" s="37"/>
-      <c r="G48" s="37"/>
-      <c r="H48" s="37"/>
-      <c r="I48" s="44"/>
-      <c r="J48" s="37"/>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3"/>
+      <c r="H48" s="3"/>
+      <c r="I48" s="3"/>
+      <c r="J48" s="3"/>
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
       <c r="M48" s="1"/>
@@ -3044,15 +3059,15 @@
     </row>
     <row r="49">
       <c r="A49" s="1"/>
-      <c r="B49" s="45"/>
-      <c r="C49" s="46"/>
-      <c r="D49" s="46"/>
-      <c r="E49" s="38"/>
-      <c r="F49" s="38"/>
-      <c r="G49" s="38"/>
-      <c r="H49" s="38"/>
-      <c r="I49" s="39"/>
-      <c r="J49" s="38"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3"/>
+      <c r="H49" s="3"/>
+      <c r="I49" s="3"/>
+      <c r="J49" s="3"/>
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
       <c r="M49" s="1"/>
@@ -3074,15 +3089,15 @@
     </row>
     <row r="50">
       <c r="A50" s="1"/>
-      <c r="B50" s="42"/>
-      <c r="C50" s="43"/>
-      <c r="D50" s="43"/>
-      <c r="E50" s="37"/>
-      <c r="F50" s="37"/>
-      <c r="G50" s="37"/>
-      <c r="H50" s="37"/>
-      <c r="I50" s="44"/>
-      <c r="J50" s="37"/>
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
+      <c r="G50" s="3"/>
+      <c r="H50" s="3"/>
+      <c r="I50" s="3"/>
+      <c r="J50" s="3"/>
       <c r="K50" s="1"/>
       <c r="L50" s="1"/>
       <c r="M50" s="1"/>
@@ -3104,15 +3119,15 @@
     </row>
     <row r="51">
       <c r="A51" s="1"/>
-      <c r="B51" s="45"/>
-      <c r="C51" s="46"/>
-      <c r="D51" s="46"/>
-      <c r="E51" s="38"/>
-      <c r="F51" s="38"/>
-      <c r="G51" s="38"/>
-      <c r="H51" s="38"/>
-      <c r="I51" s="39"/>
-      <c r="J51" s="38"/>
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="3"/>
+      <c r="G51" s="3"/>
+      <c r="H51" s="3"/>
+      <c r="I51" s="3"/>
+      <c r="J51" s="3"/>
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
       <c r="M51" s="1"/>
@@ -3134,15 +3149,15 @@
     </row>
     <row r="52">
       <c r="A52" s="1"/>
-      <c r="B52" s="42"/>
-      <c r="C52" s="43"/>
-      <c r="D52" s="43"/>
-      <c r="E52" s="37"/>
-      <c r="F52" s="37"/>
-      <c r="G52" s="37"/>
-      <c r="H52" s="37"/>
-      <c r="I52" s="44"/>
-      <c r="J52" s="37"/>
+      <c r="B52" s="2"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3"/>
+      <c r="G52" s="3"/>
+      <c r="H52" s="3"/>
+      <c r="I52" s="3"/>
+      <c r="J52" s="3"/>
       <c r="K52" s="1"/>
       <c r="L52" s="1"/>
       <c r="M52" s="1"/>
@@ -3164,15 +3179,15 @@
     </row>
     <row r="53">
       <c r="A53" s="1"/>
-      <c r="B53" s="45"/>
-      <c r="C53" s="46"/>
-      <c r="D53" s="46"/>
-      <c r="E53" s="38"/>
-      <c r="F53" s="38"/>
-      <c r="G53" s="38"/>
-      <c r="H53" s="38"/>
-      <c r="I53" s="39"/>
-      <c r="J53" s="38"/>
+      <c r="B53" s="2"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="3"/>
+      <c r="F53" s="3"/>
+      <c r="G53" s="3"/>
+      <c r="H53" s="3"/>
+      <c r="I53" s="3"/>
+      <c r="J53" s="3"/>
       <c r="K53" s="1"/>
       <c r="L53" s="1"/>
       <c r="M53" s="1"/>
@@ -3194,15 +3209,15 @@
     </row>
     <row r="54">
       <c r="A54" s="1"/>
-      <c r="B54" s="42"/>
-      <c r="C54" s="43"/>
-      <c r="D54" s="43"/>
-      <c r="E54" s="37"/>
-      <c r="F54" s="37"/>
-      <c r="G54" s="37"/>
-      <c r="H54" s="37"/>
-      <c r="I54" s="44"/>
-      <c r="J54" s="37"/>
+      <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="3"/>
+      <c r="G54" s="3"/>
+      <c r="H54" s="3"/>
+      <c r="I54" s="3"/>
+      <c r="J54" s="3"/>
       <c r="K54" s="1"/>
       <c r="L54" s="1"/>
       <c r="M54" s="1"/>
@@ -3224,15 +3239,15 @@
     </row>
     <row r="55">
       <c r="A55" s="1"/>
-      <c r="B55" s="45"/>
-      <c r="C55" s="46"/>
-      <c r="D55" s="46"/>
-      <c r="E55" s="38"/>
-      <c r="F55" s="38"/>
-      <c r="G55" s="38"/>
-      <c r="H55" s="38"/>
-      <c r="I55" s="39"/>
-      <c r="J55" s="38"/>
+      <c r="B55" s="2"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="3"/>
+      <c r="F55" s="3"/>
+      <c r="G55" s="3"/>
+      <c r="H55" s="3"/>
+      <c r="I55" s="3"/>
+      <c r="J55" s="3"/>
       <c r="K55" s="1"/>
       <c r="L55" s="1"/>
       <c r="M55" s="1"/>
@@ -3254,15 +3269,15 @@
     </row>
     <row r="56">
       <c r="A56" s="1"/>
-      <c r="B56" s="42"/>
-      <c r="C56" s="43"/>
-      <c r="D56" s="43"/>
-      <c r="E56" s="37"/>
-      <c r="F56" s="37"/>
-      <c r="G56" s="37"/>
-      <c r="H56" s="37"/>
-      <c r="I56" s="44"/>
-      <c r="J56" s="37"/>
+      <c r="B56" s="2"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="3"/>
+      <c r="F56" s="3"/>
+      <c r="G56" s="3"/>
+      <c r="H56" s="3"/>
+      <c r="I56" s="3"/>
+      <c r="J56" s="3"/>
       <c r="K56" s="1"/>
       <c r="L56" s="1"/>
       <c r="M56" s="1"/>
@@ -3284,15 +3299,15 @@
     </row>
     <row r="57">
       <c r="A57" s="1"/>
-      <c r="B57" s="45"/>
-      <c r="C57" s="46"/>
-      <c r="D57" s="46"/>
-      <c r="E57" s="38"/>
-      <c r="F57" s="38"/>
-      <c r="G57" s="38"/>
-      <c r="H57" s="38"/>
-      <c r="I57" s="39"/>
-      <c r="J57" s="38"/>
+      <c r="B57" s="2"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="3"/>
+      <c r="F57" s="3"/>
+      <c r="G57" s="3"/>
+      <c r="H57" s="3"/>
+      <c r="I57" s="3"/>
+      <c r="J57" s="3"/>
       <c r="K57" s="1"/>
       <c r="L57" s="1"/>
       <c r="M57" s="1"/>
@@ -3314,15 +3329,15 @@
     </row>
     <row r="58">
       <c r="A58" s="1"/>
-      <c r="B58" s="42"/>
-      <c r="C58" s="43"/>
-      <c r="D58" s="43"/>
-      <c r="E58" s="37"/>
-      <c r="F58" s="37"/>
-      <c r="G58" s="37"/>
-      <c r="H58" s="37"/>
-      <c r="I58" s="44"/>
-      <c r="J58" s="37"/>
+      <c r="B58" s="2"/>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="3"/>
+      <c r="F58" s="3"/>
+      <c r="G58" s="3"/>
+      <c r="H58" s="3"/>
+      <c r="I58" s="3"/>
+      <c r="J58" s="3"/>
       <c r="K58" s="1"/>
       <c r="L58" s="1"/>
       <c r="M58" s="1"/>
@@ -3344,15 +3359,15 @@
     </row>
     <row r="59">
       <c r="A59" s="1"/>
-      <c r="B59" s="45"/>
-      <c r="C59" s="46"/>
-      <c r="D59" s="46"/>
-      <c r="E59" s="38"/>
-      <c r="F59" s="38"/>
-      <c r="G59" s="38"/>
-      <c r="H59" s="38"/>
-      <c r="I59" s="39"/>
-      <c r="J59" s="38"/>
+      <c r="B59" s="2"/>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="3"/>
+      <c r="F59" s="3"/>
+      <c r="G59" s="3"/>
+      <c r="H59" s="3"/>
+      <c r="I59" s="3"/>
+      <c r="J59" s="3"/>
       <c r="K59" s="1"/>
       <c r="L59" s="1"/>
       <c r="M59" s="1"/>
@@ -3374,15 +3389,15 @@
     </row>
     <row r="60">
       <c r="A60" s="1"/>
-      <c r="B60" s="42"/>
-      <c r="C60" s="43"/>
-      <c r="D60" s="43"/>
-      <c r="E60" s="37"/>
-      <c r="F60" s="37"/>
-      <c r="G60" s="37"/>
-      <c r="H60" s="37"/>
-      <c r="I60" s="44"/>
-      <c r="J60" s="37"/>
+      <c r="B60" s="2"/>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="3"/>
+      <c r="F60" s="3"/>
+      <c r="G60" s="3"/>
+      <c r="H60" s="3"/>
+      <c r="I60" s="3"/>
+      <c r="J60" s="3"/>
       <c r="K60" s="1"/>
       <c r="L60" s="1"/>
       <c r="M60" s="1"/>
@@ -3404,15 +3419,15 @@
     </row>
     <row r="61">
       <c r="A61" s="1"/>
-      <c r="B61" s="45"/>
-      <c r="C61" s="46"/>
-      <c r="D61" s="46"/>
-      <c r="E61" s="38"/>
-      <c r="F61" s="38"/>
-      <c r="G61" s="38"/>
-      <c r="H61" s="38"/>
-      <c r="I61" s="39"/>
-      <c r="J61" s="38"/>
+      <c r="B61" s="2"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="3"/>
+      <c r="F61" s="3"/>
+      <c r="G61" s="3"/>
+      <c r="H61" s="3"/>
+      <c r="I61" s="3"/>
+      <c r="J61" s="3"/>
       <c r="K61" s="1"/>
       <c r="L61" s="1"/>
       <c r="M61" s="1"/>
@@ -3434,15 +3449,15 @@
     </row>
     <row r="62">
       <c r="A62" s="1"/>
-      <c r="B62" s="42"/>
-      <c r="C62" s="43"/>
-      <c r="D62" s="43"/>
-      <c r="E62" s="37"/>
-      <c r="F62" s="37"/>
-      <c r="G62" s="37"/>
-      <c r="H62" s="37"/>
-      <c r="I62" s="44"/>
-      <c r="J62" s="37"/>
+      <c r="B62" s="2"/>
+      <c r="C62" s="2"/>
+      <c r="D62" s="2"/>
+      <c r="E62" s="3"/>
+      <c r="F62" s="3"/>
+      <c r="G62" s="3"/>
+      <c r="H62" s="3"/>
+      <c r="I62" s="3"/>
+      <c r="J62" s="3"/>
       <c r="K62" s="1"/>
       <c r="L62" s="1"/>
       <c r="M62" s="1"/>
@@ -3464,15 +3479,15 @@
     </row>
     <row r="63">
       <c r="A63" s="1"/>
-      <c r="B63" s="45"/>
-      <c r="C63" s="46"/>
-      <c r="D63" s="46"/>
-      <c r="E63" s="38"/>
-      <c r="F63" s="38"/>
-      <c r="G63" s="38"/>
-      <c r="H63" s="38"/>
-      <c r="I63" s="39"/>
-      <c r="J63" s="38"/>
+      <c r="B63" s="2"/>
+      <c r="C63" s="2"/>
+      <c r="D63" s="2"/>
+      <c r="E63" s="3"/>
+      <c r="F63" s="3"/>
+      <c r="G63" s="3"/>
+      <c r="H63" s="3"/>
+      <c r="I63" s="3"/>
+      <c r="J63" s="3"/>
       <c r="K63" s="1"/>
       <c r="L63" s="1"/>
       <c r="M63" s="1"/>
@@ -3494,15 +3509,15 @@
     </row>
     <row r="64">
       <c r="A64" s="1"/>
-      <c r="B64" s="42"/>
-      <c r="C64" s="43"/>
-      <c r="D64" s="43"/>
-      <c r="E64" s="37"/>
-      <c r="F64" s="37"/>
-      <c r="G64" s="37"/>
-      <c r="H64" s="37"/>
-      <c r="I64" s="44"/>
-      <c r="J64" s="37"/>
+      <c r="B64" s="2"/>
+      <c r="C64" s="2"/>
+      <c r="D64" s="2"/>
+      <c r="E64" s="3"/>
+      <c r="F64" s="3"/>
+      <c r="G64" s="3"/>
+      <c r="H64" s="3"/>
+      <c r="I64" s="3"/>
+      <c r="J64" s="3"/>
       <c r="K64" s="1"/>
       <c r="L64" s="1"/>
       <c r="M64" s="1"/>
@@ -3524,15 +3539,15 @@
     </row>
     <row r="65">
       <c r="A65" s="1"/>
-      <c r="B65" s="45"/>
-      <c r="C65" s="46"/>
-      <c r="D65" s="46"/>
-      <c r="E65" s="38"/>
-      <c r="F65" s="38"/>
-      <c r="G65" s="38"/>
-      <c r="H65" s="38"/>
-      <c r="I65" s="39"/>
-      <c r="J65" s="38"/>
+      <c r="B65" s="2"/>
+      <c r="C65" s="2"/>
+      <c r="D65" s="2"/>
+      <c r="E65" s="3"/>
+      <c r="F65" s="3"/>
+      <c r="G65" s="3"/>
+      <c r="H65" s="3"/>
+      <c r="I65" s="3"/>
+      <c r="J65" s="3"/>
       <c r="K65" s="1"/>
       <c r="L65" s="1"/>
       <c r="M65" s="1"/>
@@ -3554,15 +3569,15 @@
     </row>
     <row r="66">
       <c r="A66" s="1"/>
-      <c r="B66" s="42"/>
-      <c r="C66" s="43"/>
-      <c r="D66" s="43"/>
-      <c r="E66" s="37"/>
-      <c r="F66" s="37"/>
-      <c r="G66" s="37"/>
-      <c r="H66" s="37"/>
-      <c r="I66" s="44"/>
-      <c r="J66" s="37"/>
+      <c r="B66" s="2"/>
+      <c r="C66" s="2"/>
+      <c r="D66" s="2"/>
+      <c r="E66" s="3"/>
+      <c r="F66" s="3"/>
+      <c r="G66" s="3"/>
+      <c r="H66" s="3"/>
+      <c r="I66" s="3"/>
+      <c r="J66" s="3"/>
       <c r="K66" s="1"/>
       <c r="L66" s="1"/>
       <c r="M66" s="1"/>
@@ -3584,15 +3599,15 @@
     </row>
     <row r="67">
       <c r="A67" s="1"/>
-      <c r="B67" s="45"/>
-      <c r="C67" s="46"/>
-      <c r="D67" s="46"/>
-      <c r="E67" s="38"/>
-      <c r="F67" s="38"/>
-      <c r="G67" s="38"/>
-      <c r="H67" s="38"/>
-      <c r="I67" s="39"/>
-      <c r="J67" s="38"/>
+      <c r="B67" s="2"/>
+      <c r="C67" s="2"/>
+      <c r="D67" s="2"/>
+      <c r="E67" s="3"/>
+      <c r="F67" s="3"/>
+      <c r="G67" s="3"/>
+      <c r="H67" s="3"/>
+      <c r="I67" s="3"/>
+      <c r="J67" s="3"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
       <c r="M67" s="1"/>
@@ -3614,15 +3629,15 @@
     </row>
     <row r="68">
       <c r="A68" s="1"/>
-      <c r="B68" s="42"/>
-      <c r="C68" s="43"/>
-      <c r="D68" s="43"/>
-      <c r="E68" s="37"/>
-      <c r="F68" s="37"/>
-      <c r="G68" s="37"/>
-      <c r="H68" s="37"/>
-      <c r="I68" s="44"/>
-      <c r="J68" s="37"/>
+      <c r="B68" s="2"/>
+      <c r="C68" s="2"/>
+      <c r="D68" s="2"/>
+      <c r="E68" s="3"/>
+      <c r="F68" s="3"/>
+      <c r="G68" s="3"/>
+      <c r="H68" s="3"/>
+      <c r="I68" s="3"/>
+      <c r="J68" s="3"/>
       <c r="K68" s="1"/>
       <c r="L68" s="1"/>
       <c r="M68" s="1"/>
@@ -3644,15 +3659,15 @@
     </row>
     <row r="69">
       <c r="A69" s="1"/>
-      <c r="B69" s="45"/>
-      <c r="C69" s="46"/>
-      <c r="D69" s="46"/>
-      <c r="E69" s="38"/>
-      <c r="F69" s="38"/>
-      <c r="G69" s="38"/>
-      <c r="H69" s="38"/>
-      <c r="I69" s="39"/>
-      <c r="J69" s="38"/>
+      <c r="B69" s="2"/>
+      <c r="C69" s="2"/>
+      <c r="D69" s="2"/>
+      <c r="E69" s="3"/>
+      <c r="F69" s="3"/>
+      <c r="G69" s="3"/>
+      <c r="H69" s="3"/>
+      <c r="I69" s="3"/>
+      <c r="J69" s="3"/>
       <c r="K69" s="1"/>
       <c r="L69" s="1"/>
       <c r="M69" s="1"/>
@@ -3674,15 +3689,15 @@
     </row>
     <row r="70">
       <c r="A70" s="1"/>
-      <c r="B70" s="42"/>
-      <c r="C70" s="43"/>
-      <c r="D70" s="43"/>
-      <c r="E70" s="37"/>
-      <c r="F70" s="37"/>
-      <c r="G70" s="37"/>
-      <c r="H70" s="37"/>
-      <c r="I70" s="44"/>
-      <c r="J70" s="37"/>
+      <c r="B70" s="2"/>
+      <c r="C70" s="2"/>
+      <c r="D70" s="2"/>
+      <c r="E70" s="3"/>
+      <c r="F70" s="3"/>
+      <c r="G70" s="3"/>
+      <c r="H70" s="3"/>
+      <c r="I70" s="3"/>
+      <c r="J70" s="3"/>
       <c r="K70" s="1"/>
       <c r="L70" s="1"/>
       <c r="M70" s="1"/>
@@ -3704,15 +3719,15 @@
     </row>
     <row r="71">
       <c r="A71" s="1"/>
-      <c r="B71" s="47"/>
-      <c r="C71" s="48"/>
-      <c r="D71" s="48"/>
-      <c r="E71" s="49"/>
-      <c r="F71" s="49"/>
-      <c r="G71" s="49"/>
-      <c r="H71" s="49"/>
-      <c r="I71" s="50"/>
-      <c r="J71" s="38"/>
+      <c r="B71" s="2"/>
+      <c r="C71" s="2"/>
+      <c r="D71" s="2"/>
+      <c r="E71" s="3"/>
+      <c r="F71" s="3"/>
+      <c r="G71" s="3"/>
+      <c r="H71" s="3"/>
+      <c r="I71" s="3"/>
+      <c r="J71" s="3"/>
       <c r="K71" s="1"/>
       <c r="L71" s="1"/>
       <c r="M71" s="1"/>
@@ -3734,15 +3749,15 @@
     </row>
     <row r="72">
       <c r="A72" s="1"/>
-      <c r="B72" s="51"/>
-      <c r="C72" s="52"/>
-      <c r="D72" s="52"/>
-      <c r="E72" s="53"/>
-      <c r="F72" s="53"/>
-      <c r="G72" s="53"/>
-      <c r="H72" s="53"/>
-      <c r="I72" s="54"/>
-      <c r="J72" s="37"/>
+      <c r="B72" s="2"/>
+      <c r="C72" s="2"/>
+      <c r="D72" s="2"/>
+      <c r="E72" s="3"/>
+      <c r="F72" s="3"/>
+      <c r="G72" s="3"/>
+      <c r="H72" s="3"/>
+      <c r="I72" s="3"/>
+      <c r="J72" s="3"/>
       <c r="K72" s="1"/>
       <c r="L72" s="1"/>
       <c r="M72" s="1"/>
@@ -3764,15 +3779,15 @@
     </row>
     <row r="73">
       <c r="A73" s="1"/>
-      <c r="B73" s="47"/>
-      <c r="C73" s="48"/>
-      <c r="D73" s="48"/>
-      <c r="E73" s="49"/>
-      <c r="F73" s="49"/>
-      <c r="G73" s="49"/>
-      <c r="H73" s="49"/>
-      <c r="I73" s="50"/>
-      <c r="J73" s="38"/>
+      <c r="B73" s="2"/>
+      <c r="C73" s="2"/>
+      <c r="D73" s="2"/>
+      <c r="E73" s="3"/>
+      <c r="F73" s="3"/>
+      <c r="G73" s="3"/>
+      <c r="H73" s="3"/>
+      <c r="I73" s="3"/>
+      <c r="J73" s="3"/>
       <c r="K73" s="1"/>
       <c r="L73" s="1"/>
       <c r="M73" s="1"/>
@@ -3794,15 +3809,15 @@
     </row>
     <row r="74">
       <c r="A74" s="1"/>
-      <c r="B74" s="51"/>
-      <c r="C74" s="52"/>
-      <c r="D74" s="52"/>
-      <c r="E74" s="53"/>
-      <c r="F74" s="53"/>
-      <c r="G74" s="53"/>
-      <c r="H74" s="53"/>
-      <c r="I74" s="54"/>
-      <c r="J74" s="37"/>
+      <c r="B74" s="2"/>
+      <c r="C74" s="2"/>
+      <c r="D74" s="2"/>
+      <c r="E74" s="3"/>
+      <c r="F74" s="3"/>
+      <c r="G74" s="3"/>
+      <c r="H74" s="3"/>
+      <c r="I74" s="3"/>
+      <c r="J74" s="3"/>
       <c r="K74" s="1"/>
       <c r="L74" s="1"/>
       <c r="M74" s="1"/>
@@ -3824,15 +3839,15 @@
     </row>
     <row r="75">
       <c r="A75" s="1"/>
-      <c r="B75" s="47"/>
-      <c r="C75" s="48"/>
-      <c r="D75" s="48"/>
-      <c r="E75" s="49"/>
-      <c r="F75" s="49"/>
-      <c r="G75" s="49"/>
-      <c r="H75" s="49"/>
-      <c r="I75" s="50"/>
-      <c r="J75" s="38"/>
+      <c r="B75" s="2"/>
+      <c r="C75" s="2"/>
+      <c r="D75" s="2"/>
+      <c r="E75" s="3"/>
+      <c r="F75" s="3"/>
+      <c r="G75" s="3"/>
+      <c r="H75" s="3"/>
+      <c r="I75" s="3"/>
+      <c r="J75" s="3"/>
       <c r="K75" s="1"/>
       <c r="L75" s="1"/>
       <c r="M75" s="1"/>
@@ -3854,15 +3869,15 @@
     </row>
     <row r="76">
       <c r="A76" s="1"/>
-      <c r="B76" s="51"/>
-      <c r="C76" s="52"/>
-      <c r="D76" s="52"/>
-      <c r="E76" s="53"/>
-      <c r="F76" s="53"/>
-      <c r="G76" s="53"/>
-      <c r="H76" s="53"/>
-      <c r="I76" s="54"/>
-      <c r="J76" s="37"/>
+      <c r="B76" s="2"/>
+      <c r="C76" s="2"/>
+      <c r="D76" s="2"/>
+      <c r="E76" s="3"/>
+      <c r="F76" s="3"/>
+      <c r="G76" s="3"/>
+      <c r="H76" s="3"/>
+      <c r="I76" s="3"/>
+      <c r="J76" s="3"/>
       <c r="K76" s="1"/>
       <c r="L76" s="1"/>
       <c r="M76" s="1"/>
@@ -3884,15 +3899,15 @@
     </row>
     <row r="77">
       <c r="A77" s="1"/>
-      <c r="B77" s="47"/>
-      <c r="C77" s="48"/>
-      <c r="D77" s="48"/>
-      <c r="E77" s="49"/>
-      <c r="F77" s="49"/>
-      <c r="G77" s="49"/>
-      <c r="H77" s="49"/>
-      <c r="I77" s="50"/>
-      <c r="J77" s="38"/>
+      <c r="B77" s="2"/>
+      <c r="C77" s="2"/>
+      <c r="D77" s="2"/>
+      <c r="E77" s="3"/>
+      <c r="F77" s="3"/>
+      <c r="G77" s="3"/>
+      <c r="H77" s="3"/>
+      <c r="I77" s="3"/>
+      <c r="J77" s="3"/>
       <c r="K77" s="1"/>
       <c r="L77" s="1"/>
       <c r="M77" s="1"/>
@@ -3914,15 +3929,15 @@
     </row>
     <row r="78">
       <c r="A78" s="1"/>
-      <c r="B78" s="51"/>
-      <c r="C78" s="52"/>
-      <c r="D78" s="52"/>
-      <c r="E78" s="53"/>
-      <c r="F78" s="53"/>
-      <c r="G78" s="53"/>
-      <c r="H78" s="53"/>
-      <c r="I78" s="54"/>
-      <c r="J78" s="37"/>
+      <c r="B78" s="2"/>
+      <c r="C78" s="2"/>
+      <c r="D78" s="2"/>
+      <c r="E78" s="3"/>
+      <c r="F78" s="3"/>
+      <c r="G78" s="3"/>
+      <c r="H78" s="3"/>
+      <c r="I78" s="3"/>
+      <c r="J78" s="3"/>
       <c r="K78" s="1"/>
       <c r="L78" s="1"/>
       <c r="M78" s="1"/>
@@ -3944,15 +3959,15 @@
     </row>
     <row r="79">
       <c r="A79" s="1"/>
-      <c r="B79" s="47"/>
-      <c r="C79" s="48"/>
-      <c r="D79" s="48"/>
-      <c r="E79" s="49"/>
-      <c r="F79" s="49"/>
-      <c r="G79" s="49"/>
-      <c r="H79" s="49"/>
-      <c r="I79" s="50"/>
-      <c r="J79" s="38"/>
+      <c r="B79" s="2"/>
+      <c r="C79" s="2"/>
+      <c r="D79" s="2"/>
+      <c r="E79" s="3"/>
+      <c r="F79" s="3"/>
+      <c r="G79" s="3"/>
+      <c r="H79" s="3"/>
+      <c r="I79" s="3"/>
+      <c r="J79" s="3"/>
       <c r="K79" s="1"/>
       <c r="L79" s="1"/>
       <c r="M79" s="1"/>
@@ -3974,15 +3989,15 @@
     </row>
     <row r="80">
       <c r="A80" s="1"/>
-      <c r="B80" s="51"/>
-      <c r="C80" s="52"/>
-      <c r="D80" s="52"/>
-      <c r="E80" s="53"/>
-      <c r="F80" s="53"/>
-      <c r="G80" s="53"/>
-      <c r="H80" s="53"/>
-      <c r="I80" s="54"/>
-      <c r="J80" s="37"/>
+      <c r="B80" s="2"/>
+      <c r="C80" s="2"/>
+      <c r="D80" s="2"/>
+      <c r="E80" s="3"/>
+      <c r="F80" s="3"/>
+      <c r="G80" s="3"/>
+      <c r="H80" s="3"/>
+      <c r="I80" s="3"/>
+      <c r="J80" s="3"/>
       <c r="K80" s="1"/>
       <c r="L80" s="1"/>
       <c r="M80" s="1"/>
@@ -4004,15 +4019,15 @@
     </row>
     <row r="81">
       <c r="A81" s="1"/>
-      <c r="B81" s="55"/>
-      <c r="C81" s="56"/>
-      <c r="D81" s="56"/>
-      <c r="E81" s="57"/>
-      <c r="F81" s="57"/>
-      <c r="G81" s="57"/>
-      <c r="H81" s="57"/>
-      <c r="I81" s="58"/>
-      <c r="J81" s="57"/>
+      <c r="B81" s="2"/>
+      <c r="C81" s="2"/>
+      <c r="D81" s="2"/>
+      <c r="E81" s="3"/>
+      <c r="F81" s="3"/>
+      <c r="G81" s="3"/>
+      <c r="H81" s="3"/>
+      <c r="I81" s="3"/>
+      <c r="J81" s="3"/>
       <c r="K81" s="1"/>
       <c r="L81" s="1"/>
       <c r="M81" s="1"/>
@@ -31632,1328 +31647,10 @@
       <c r="AA1001" s="1"/>
       <c r="AB1001" s="1"/>
     </row>
-    <row r="1002">
-      <c r="A1002" s="1"/>
-      <c r="B1002" s="2"/>
-      <c r="C1002" s="2"/>
-      <c r="D1002" s="2"/>
-      <c r="E1002" s="3"/>
-      <c r="F1002" s="3"/>
-      <c r="G1002" s="3"/>
-      <c r="H1002" s="3"/>
-      <c r="I1002" s="3"/>
-      <c r="J1002" s="3"/>
-      <c r="K1002" s="1"/>
-      <c r="L1002" s="1"/>
-      <c r="M1002" s="1"/>
-      <c r="N1002" s="1"/>
-      <c r="O1002" s="1"/>
-      <c r="P1002" s="1"/>
-      <c r="Q1002" s="1"/>
-      <c r="R1002" s="1"/>
-      <c r="S1002" s="1"/>
-      <c r="T1002" s="1"/>
-      <c r="U1002" s="1"/>
-      <c r="V1002" s="1"/>
-      <c r="W1002" s="1"/>
-      <c r="X1002" s="1"/>
-      <c r="Y1002" s="1"/>
-      <c r="Z1002" s="1"/>
-      <c r="AA1002" s="1"/>
-      <c r="AB1002" s="1"/>
-    </row>
-    <row r="1003">
-      <c r="A1003" s="1"/>
-      <c r="B1003" s="2"/>
-      <c r="C1003" s="2"/>
-      <c r="D1003" s="2"/>
-      <c r="E1003" s="3"/>
-      <c r="F1003" s="3"/>
-      <c r="G1003" s="3"/>
-      <c r="H1003" s="3"/>
-      <c r="I1003" s="3"/>
-      <c r="J1003" s="3"/>
-      <c r="K1003" s="1"/>
-      <c r="L1003" s="1"/>
-      <c r="M1003" s="1"/>
-      <c r="N1003" s="1"/>
-      <c r="O1003" s="1"/>
-      <c r="P1003" s="1"/>
-      <c r="Q1003" s="1"/>
-      <c r="R1003" s="1"/>
-      <c r="S1003" s="1"/>
-      <c r="T1003" s="1"/>
-      <c r="U1003" s="1"/>
-      <c r="V1003" s="1"/>
-      <c r="W1003" s="1"/>
-      <c r="X1003" s="1"/>
-      <c r="Y1003" s="1"/>
-      <c r="Z1003" s="1"/>
-      <c r="AA1003" s="1"/>
-      <c r="AB1003" s="1"/>
-    </row>
-    <row r="1004">
-      <c r="A1004" s="1"/>
-      <c r="B1004" s="2"/>
-      <c r="C1004" s="2"/>
-      <c r="D1004" s="2"/>
-      <c r="E1004" s="3"/>
-      <c r="F1004" s="3"/>
-      <c r="G1004" s="3"/>
-      <c r="H1004" s="3"/>
-      <c r="I1004" s="3"/>
-      <c r="J1004" s="3"/>
-      <c r="K1004" s="1"/>
-      <c r="L1004" s="1"/>
-      <c r="M1004" s="1"/>
-      <c r="N1004" s="1"/>
-      <c r="O1004" s="1"/>
-      <c r="P1004" s="1"/>
-      <c r="Q1004" s="1"/>
-      <c r="R1004" s="1"/>
-      <c r="S1004" s="1"/>
-      <c r="T1004" s="1"/>
-      <c r="U1004" s="1"/>
-      <c r="V1004" s="1"/>
-      <c r="W1004" s="1"/>
-      <c r="X1004" s="1"/>
-      <c r="Y1004" s="1"/>
-      <c r="Z1004" s="1"/>
-      <c r="AA1004" s="1"/>
-      <c r="AB1004" s="1"/>
-    </row>
-    <row r="1005">
-      <c r="A1005" s="1"/>
-      <c r="B1005" s="2"/>
-      <c r="C1005" s="2"/>
-      <c r="D1005" s="2"/>
-      <c r="E1005" s="3"/>
-      <c r="F1005" s="3"/>
-      <c r="G1005" s="3"/>
-      <c r="H1005" s="3"/>
-      <c r="I1005" s="3"/>
-      <c r="J1005" s="3"/>
-      <c r="K1005" s="1"/>
-      <c r="L1005" s="1"/>
-      <c r="M1005" s="1"/>
-      <c r="N1005" s="1"/>
-      <c r="O1005" s="1"/>
-      <c r="P1005" s="1"/>
-      <c r="Q1005" s="1"/>
-      <c r="R1005" s="1"/>
-      <c r="S1005" s="1"/>
-      <c r="T1005" s="1"/>
-      <c r="U1005" s="1"/>
-      <c r="V1005" s="1"/>
-      <c r="W1005" s="1"/>
-      <c r="X1005" s="1"/>
-      <c r="Y1005" s="1"/>
-      <c r="Z1005" s="1"/>
-      <c r="AA1005" s="1"/>
-      <c r="AB1005" s="1"/>
-    </row>
-    <row r="1006">
-      <c r="A1006" s="1"/>
-      <c r="B1006" s="2"/>
-      <c r="C1006" s="2"/>
-      <c r="D1006" s="2"/>
-      <c r="E1006" s="3"/>
-      <c r="F1006" s="3"/>
-      <c r="G1006" s="3"/>
-      <c r="H1006" s="3"/>
-      <c r="I1006" s="3"/>
-      <c r="J1006" s="3"/>
-      <c r="K1006" s="1"/>
-      <c r="L1006" s="1"/>
-      <c r="M1006" s="1"/>
-      <c r="N1006" s="1"/>
-      <c r="O1006" s="1"/>
-      <c r="P1006" s="1"/>
-      <c r="Q1006" s="1"/>
-      <c r="R1006" s="1"/>
-      <c r="S1006" s="1"/>
-      <c r="T1006" s="1"/>
-      <c r="U1006" s="1"/>
-      <c r="V1006" s="1"/>
-      <c r="W1006" s="1"/>
-      <c r="X1006" s="1"/>
-      <c r="Y1006" s="1"/>
-      <c r="Z1006" s="1"/>
-      <c r="AA1006" s="1"/>
-      <c r="AB1006" s="1"/>
-    </row>
-    <row r="1007">
-      <c r="A1007" s="1"/>
-      <c r="B1007" s="2"/>
-      <c r="C1007" s="2"/>
-      <c r="D1007" s="2"/>
-      <c r="E1007" s="3"/>
-      <c r="F1007" s="3"/>
-      <c r="G1007" s="3"/>
-      <c r="H1007" s="3"/>
-      <c r="I1007" s="3"/>
-      <c r="J1007" s="3"/>
-      <c r="K1007" s="1"/>
-      <c r="L1007" s="1"/>
-      <c r="M1007" s="1"/>
-      <c r="N1007" s="1"/>
-      <c r="O1007" s="1"/>
-      <c r="P1007" s="1"/>
-      <c r="Q1007" s="1"/>
-      <c r="R1007" s="1"/>
-      <c r="S1007" s="1"/>
-      <c r="T1007" s="1"/>
-      <c r="U1007" s="1"/>
-      <c r="V1007" s="1"/>
-      <c r="W1007" s="1"/>
-      <c r="X1007" s="1"/>
-      <c r="Y1007" s="1"/>
-      <c r="Z1007" s="1"/>
-      <c r="AA1007" s="1"/>
-      <c r="AB1007" s="1"/>
-    </row>
-    <row r="1008">
-      <c r="A1008" s="1"/>
-      <c r="B1008" s="2"/>
-      <c r="C1008" s="2"/>
-      <c r="D1008" s="2"/>
-      <c r="E1008" s="3"/>
-      <c r="F1008" s="3"/>
-      <c r="G1008" s="3"/>
-      <c r="H1008" s="3"/>
-      <c r="I1008" s="3"/>
-      <c r="J1008" s="3"/>
-      <c r="K1008" s="1"/>
-      <c r="L1008" s="1"/>
-      <c r="M1008" s="1"/>
-      <c r="N1008" s="1"/>
-      <c r="O1008" s="1"/>
-      <c r="P1008" s="1"/>
-      <c r="Q1008" s="1"/>
-      <c r="R1008" s="1"/>
-      <c r="S1008" s="1"/>
-      <c r="T1008" s="1"/>
-      <c r="U1008" s="1"/>
-      <c r="V1008" s="1"/>
-      <c r="W1008" s="1"/>
-      <c r="X1008" s="1"/>
-      <c r="Y1008" s="1"/>
-      <c r="Z1008" s="1"/>
-      <c r="AA1008" s="1"/>
-      <c r="AB1008" s="1"/>
-    </row>
-    <row r="1009">
-      <c r="A1009" s="1"/>
-      <c r="B1009" s="2"/>
-      <c r="C1009" s="2"/>
-      <c r="D1009" s="2"/>
-      <c r="E1009" s="3"/>
-      <c r="F1009" s="3"/>
-      <c r="G1009" s="3"/>
-      <c r="H1009" s="3"/>
-      <c r="I1009" s="3"/>
-      <c r="J1009" s="3"/>
-      <c r="K1009" s="1"/>
-      <c r="L1009" s="1"/>
-      <c r="M1009" s="1"/>
-      <c r="N1009" s="1"/>
-      <c r="O1009" s="1"/>
-      <c r="P1009" s="1"/>
-      <c r="Q1009" s="1"/>
-      <c r="R1009" s="1"/>
-      <c r="S1009" s="1"/>
-      <c r="T1009" s="1"/>
-      <c r="U1009" s="1"/>
-      <c r="V1009" s="1"/>
-      <c r="W1009" s="1"/>
-      <c r="X1009" s="1"/>
-      <c r="Y1009" s="1"/>
-      <c r="Z1009" s="1"/>
-      <c r="AA1009" s="1"/>
-      <c r="AB1009" s="1"/>
-    </row>
-    <row r="1010">
-      <c r="A1010" s="1"/>
-      <c r="B1010" s="2"/>
-      <c r="C1010" s="2"/>
-      <c r="D1010" s="2"/>
-      <c r="E1010" s="3"/>
-      <c r="F1010" s="3"/>
-      <c r="G1010" s="3"/>
-      <c r="H1010" s="3"/>
-      <c r="I1010" s="3"/>
-      <c r="J1010" s="3"/>
-      <c r="K1010" s="1"/>
-      <c r="L1010" s="1"/>
-      <c r="M1010" s="1"/>
-      <c r="N1010" s="1"/>
-      <c r="O1010" s="1"/>
-      <c r="P1010" s="1"/>
-      <c r="Q1010" s="1"/>
-      <c r="R1010" s="1"/>
-      <c r="S1010" s="1"/>
-      <c r="T1010" s="1"/>
-      <c r="U1010" s="1"/>
-      <c r="V1010" s="1"/>
-      <c r="W1010" s="1"/>
-      <c r="X1010" s="1"/>
-      <c r="Y1010" s="1"/>
-      <c r="Z1010" s="1"/>
-      <c r="AA1010" s="1"/>
-      <c r="AB1010" s="1"/>
-    </row>
-    <row r="1011">
-      <c r="A1011" s="1"/>
-      <c r="B1011" s="2"/>
-      <c r="C1011" s="2"/>
-      <c r="D1011" s="2"/>
-      <c r="E1011" s="3"/>
-      <c r="F1011" s="3"/>
-      <c r="G1011" s="3"/>
-      <c r="H1011" s="3"/>
-      <c r="I1011" s="3"/>
-      <c r="J1011" s="3"/>
-      <c r="K1011" s="1"/>
-      <c r="L1011" s="1"/>
-      <c r="M1011" s="1"/>
-      <c r="N1011" s="1"/>
-      <c r="O1011" s="1"/>
-      <c r="P1011" s="1"/>
-      <c r="Q1011" s="1"/>
-      <c r="R1011" s="1"/>
-      <c r="S1011" s="1"/>
-      <c r="T1011" s="1"/>
-      <c r="U1011" s="1"/>
-      <c r="V1011" s="1"/>
-      <c r="W1011" s="1"/>
-      <c r="X1011" s="1"/>
-      <c r="Y1011" s="1"/>
-      <c r="Z1011" s="1"/>
-      <c r="AA1011" s="1"/>
-      <c r="AB1011" s="1"/>
-    </row>
-    <row r="1012">
-      <c r="A1012" s="1"/>
-      <c r="B1012" s="2"/>
-      <c r="C1012" s="2"/>
-      <c r="D1012" s="2"/>
-      <c r="E1012" s="3"/>
-      <c r="F1012" s="3"/>
-      <c r="G1012" s="3"/>
-      <c r="H1012" s="3"/>
-      <c r="I1012" s="3"/>
-      <c r="J1012" s="3"/>
-      <c r="K1012" s="1"/>
-      <c r="L1012" s="1"/>
-      <c r="M1012" s="1"/>
-      <c r="N1012" s="1"/>
-      <c r="O1012" s="1"/>
-      <c r="P1012" s="1"/>
-      <c r="Q1012" s="1"/>
-      <c r="R1012" s="1"/>
-      <c r="S1012" s="1"/>
-      <c r="T1012" s="1"/>
-      <c r="U1012" s="1"/>
-      <c r="V1012" s="1"/>
-      <c r="W1012" s="1"/>
-      <c r="X1012" s="1"/>
-      <c r="Y1012" s="1"/>
-      <c r="Z1012" s="1"/>
-      <c r="AA1012" s="1"/>
-      <c r="AB1012" s="1"/>
-    </row>
-    <row r="1013">
-      <c r="A1013" s="1"/>
-      <c r="B1013" s="2"/>
-      <c r="C1013" s="2"/>
-      <c r="D1013" s="2"/>
-      <c r="E1013" s="3"/>
-      <c r="F1013" s="3"/>
-      <c r="G1013" s="3"/>
-      <c r="H1013" s="3"/>
-      <c r="I1013" s="3"/>
-      <c r="J1013" s="3"/>
-      <c r="K1013" s="1"/>
-      <c r="L1013" s="1"/>
-      <c r="M1013" s="1"/>
-      <c r="N1013" s="1"/>
-      <c r="O1013" s="1"/>
-      <c r="P1013" s="1"/>
-      <c r="Q1013" s="1"/>
-      <c r="R1013" s="1"/>
-      <c r="S1013" s="1"/>
-      <c r="T1013" s="1"/>
-      <c r="U1013" s="1"/>
-      <c r="V1013" s="1"/>
-      <c r="W1013" s="1"/>
-      <c r="X1013" s="1"/>
-      <c r="Y1013" s="1"/>
-      <c r="Z1013" s="1"/>
-      <c r="AA1013" s="1"/>
-      <c r="AB1013" s="1"/>
-    </row>
-    <row r="1014">
-      <c r="A1014" s="1"/>
-      <c r="B1014" s="2"/>
-      <c r="C1014" s="2"/>
-      <c r="D1014" s="2"/>
-      <c r="E1014" s="3"/>
-      <c r="F1014" s="3"/>
-      <c r="G1014" s="3"/>
-      <c r="H1014" s="3"/>
-      <c r="I1014" s="3"/>
-      <c r="J1014" s="3"/>
-      <c r="K1014" s="1"/>
-      <c r="L1014" s="1"/>
-      <c r="M1014" s="1"/>
-      <c r="N1014" s="1"/>
-      <c r="O1014" s="1"/>
-      <c r="P1014" s="1"/>
-      <c r="Q1014" s="1"/>
-      <c r="R1014" s="1"/>
-      <c r="S1014" s="1"/>
-      <c r="T1014" s="1"/>
-      <c r="U1014" s="1"/>
-      <c r="V1014" s="1"/>
-      <c r="W1014" s="1"/>
-      <c r="X1014" s="1"/>
-      <c r="Y1014" s="1"/>
-      <c r="Z1014" s="1"/>
-      <c r="AA1014" s="1"/>
-      <c r="AB1014" s="1"/>
-    </row>
-    <row r="1015">
-      <c r="A1015" s="1"/>
-      <c r="B1015" s="2"/>
-      <c r="C1015" s="2"/>
-      <c r="D1015" s="2"/>
-      <c r="E1015" s="3"/>
-      <c r="F1015" s="3"/>
-      <c r="G1015" s="3"/>
-      <c r="H1015" s="3"/>
-      <c r="I1015" s="3"/>
-      <c r="J1015" s="3"/>
-      <c r="K1015" s="1"/>
-      <c r="L1015" s="1"/>
-      <c r="M1015" s="1"/>
-      <c r="N1015" s="1"/>
-      <c r="O1015" s="1"/>
-      <c r="P1015" s="1"/>
-      <c r="Q1015" s="1"/>
-      <c r="R1015" s="1"/>
-      <c r="S1015" s="1"/>
-      <c r="T1015" s="1"/>
-      <c r="U1015" s="1"/>
-      <c r="V1015" s="1"/>
-      <c r="W1015" s="1"/>
-      <c r="X1015" s="1"/>
-      <c r="Y1015" s="1"/>
-      <c r="Z1015" s="1"/>
-      <c r="AA1015" s="1"/>
-      <c r="AB1015" s="1"/>
-    </row>
-    <row r="1016">
-      <c r="A1016" s="1"/>
-      <c r="B1016" s="2"/>
-      <c r="C1016" s="2"/>
-      <c r="D1016" s="2"/>
-      <c r="E1016" s="3"/>
-      <c r="F1016" s="3"/>
-      <c r="G1016" s="3"/>
-      <c r="H1016" s="3"/>
-      <c r="I1016" s="3"/>
-      <c r="J1016" s="3"/>
-      <c r="K1016" s="1"/>
-      <c r="L1016" s="1"/>
-      <c r="M1016" s="1"/>
-      <c r="N1016" s="1"/>
-      <c r="O1016" s="1"/>
-      <c r="P1016" s="1"/>
-      <c r="Q1016" s="1"/>
-      <c r="R1016" s="1"/>
-      <c r="S1016" s="1"/>
-      <c r="T1016" s="1"/>
-      <c r="U1016" s="1"/>
-      <c r="V1016" s="1"/>
-      <c r="W1016" s="1"/>
-      <c r="X1016" s="1"/>
-      <c r="Y1016" s="1"/>
-      <c r="Z1016" s="1"/>
-      <c r="AA1016" s="1"/>
-      <c r="AB1016" s="1"/>
-    </row>
-    <row r="1017">
-      <c r="A1017" s="1"/>
-      <c r="B1017" s="2"/>
-      <c r="C1017" s="2"/>
-      <c r="D1017" s="2"/>
-      <c r="E1017" s="3"/>
-      <c r="F1017" s="3"/>
-      <c r="G1017" s="3"/>
-      <c r="H1017" s="3"/>
-      <c r="I1017" s="3"/>
-      <c r="J1017" s="3"/>
-      <c r="K1017" s="1"/>
-      <c r="L1017" s="1"/>
-      <c r="M1017" s="1"/>
-      <c r="N1017" s="1"/>
-      <c r="O1017" s="1"/>
-      <c r="P1017" s="1"/>
-      <c r="Q1017" s="1"/>
-      <c r="R1017" s="1"/>
-      <c r="S1017" s="1"/>
-      <c r="T1017" s="1"/>
-      <c r="U1017" s="1"/>
-      <c r="V1017" s="1"/>
-      <c r="W1017" s="1"/>
-      <c r="X1017" s="1"/>
-      <c r="Y1017" s="1"/>
-      <c r="Z1017" s="1"/>
-      <c r="AA1017" s="1"/>
-      <c r="AB1017" s="1"/>
-    </row>
-    <row r="1018">
-      <c r="A1018" s="1"/>
-      <c r="B1018" s="2"/>
-      <c r="C1018" s="2"/>
-      <c r="D1018" s="2"/>
-      <c r="E1018" s="3"/>
-      <c r="F1018" s="3"/>
-      <c r="G1018" s="3"/>
-      <c r="H1018" s="3"/>
-      <c r="I1018" s="3"/>
-      <c r="J1018" s="3"/>
-      <c r="K1018" s="1"/>
-      <c r="L1018" s="1"/>
-      <c r="M1018" s="1"/>
-      <c r="N1018" s="1"/>
-      <c r="O1018" s="1"/>
-      <c r="P1018" s="1"/>
-      <c r="Q1018" s="1"/>
-      <c r="R1018" s="1"/>
-      <c r="S1018" s="1"/>
-      <c r="T1018" s="1"/>
-      <c r="U1018" s="1"/>
-      <c r="V1018" s="1"/>
-      <c r="W1018" s="1"/>
-      <c r="X1018" s="1"/>
-      <c r="Y1018" s="1"/>
-      <c r="Z1018" s="1"/>
-      <c r="AA1018" s="1"/>
-      <c r="AB1018" s="1"/>
-    </row>
-    <row r="1019">
-      <c r="A1019" s="1"/>
-      <c r="B1019" s="2"/>
-      <c r="C1019" s="2"/>
-      <c r="D1019" s="2"/>
-      <c r="E1019" s="3"/>
-      <c r="F1019" s="3"/>
-      <c r="G1019" s="3"/>
-      <c r="H1019" s="3"/>
-      <c r="I1019" s="3"/>
-      <c r="J1019" s="3"/>
-      <c r="K1019" s="1"/>
-      <c r="L1019" s="1"/>
-      <c r="M1019" s="1"/>
-      <c r="N1019" s="1"/>
-      <c r="O1019" s="1"/>
-      <c r="P1019" s="1"/>
-      <c r="Q1019" s="1"/>
-      <c r="R1019" s="1"/>
-      <c r="S1019" s="1"/>
-      <c r="T1019" s="1"/>
-      <c r="U1019" s="1"/>
-      <c r="V1019" s="1"/>
-      <c r="W1019" s="1"/>
-      <c r="X1019" s="1"/>
-      <c r="Y1019" s="1"/>
-      <c r="Z1019" s="1"/>
-      <c r="AA1019" s="1"/>
-      <c r="AB1019" s="1"/>
-    </row>
-    <row r="1020">
-      <c r="A1020" s="1"/>
-      <c r="B1020" s="2"/>
-      <c r="C1020" s="2"/>
-      <c r="D1020" s="2"/>
-      <c r="E1020" s="3"/>
-      <c r="F1020" s="3"/>
-      <c r="G1020" s="3"/>
-      <c r="H1020" s="3"/>
-      <c r="I1020" s="3"/>
-      <c r="J1020" s="3"/>
-      <c r="K1020" s="1"/>
-      <c r="L1020" s="1"/>
-      <c r="M1020" s="1"/>
-      <c r="N1020" s="1"/>
-      <c r="O1020" s="1"/>
-      <c r="P1020" s="1"/>
-      <c r="Q1020" s="1"/>
-      <c r="R1020" s="1"/>
-      <c r="S1020" s="1"/>
-      <c r="T1020" s="1"/>
-      <c r="U1020" s="1"/>
-      <c r="V1020" s="1"/>
-      <c r="W1020" s="1"/>
-      <c r="X1020" s="1"/>
-      <c r="Y1020" s="1"/>
-      <c r="Z1020" s="1"/>
-      <c r="AA1020" s="1"/>
-      <c r="AB1020" s="1"/>
-    </row>
-    <row r="1021">
-      <c r="A1021" s="1"/>
-      <c r="B1021" s="2"/>
-      <c r="C1021" s="2"/>
-      <c r="D1021" s="2"/>
-      <c r="E1021" s="3"/>
-      <c r="F1021" s="3"/>
-      <c r="G1021" s="3"/>
-      <c r="H1021" s="3"/>
-      <c r="I1021" s="3"/>
-      <c r="J1021" s="3"/>
-      <c r="K1021" s="1"/>
-      <c r="L1021" s="1"/>
-      <c r="M1021" s="1"/>
-      <c r="N1021" s="1"/>
-      <c r="O1021" s="1"/>
-      <c r="P1021" s="1"/>
-      <c r="Q1021" s="1"/>
-      <c r="R1021" s="1"/>
-      <c r="S1021" s="1"/>
-      <c r="T1021" s="1"/>
-      <c r="U1021" s="1"/>
-      <c r="V1021" s="1"/>
-      <c r="W1021" s="1"/>
-      <c r="X1021" s="1"/>
-      <c r="Y1021" s="1"/>
-      <c r="Z1021" s="1"/>
-      <c r="AA1021" s="1"/>
-      <c r="AB1021" s="1"/>
-    </row>
-    <row r="1022">
-      <c r="A1022" s="1"/>
-      <c r="B1022" s="2"/>
-      <c r="C1022" s="2"/>
-      <c r="D1022" s="2"/>
-      <c r="E1022" s="3"/>
-      <c r="F1022" s="3"/>
-      <c r="G1022" s="3"/>
-      <c r="H1022" s="3"/>
-      <c r="I1022" s="3"/>
-      <c r="J1022" s="3"/>
-      <c r="K1022" s="1"/>
-      <c r="L1022" s="1"/>
-      <c r="M1022" s="1"/>
-      <c r="N1022" s="1"/>
-      <c r="O1022" s="1"/>
-      <c r="P1022" s="1"/>
-      <c r="Q1022" s="1"/>
-      <c r="R1022" s="1"/>
-      <c r="S1022" s="1"/>
-      <c r="T1022" s="1"/>
-      <c r="U1022" s="1"/>
-      <c r="V1022" s="1"/>
-      <c r="W1022" s="1"/>
-      <c r="X1022" s="1"/>
-      <c r="Y1022" s="1"/>
-      <c r="Z1022" s="1"/>
-      <c r="AA1022" s="1"/>
-      <c r="AB1022" s="1"/>
-    </row>
-    <row r="1023">
-      <c r="A1023" s="1"/>
-      <c r="B1023" s="2"/>
-      <c r="C1023" s="2"/>
-      <c r="D1023" s="2"/>
-      <c r="E1023" s="3"/>
-      <c r="F1023" s="3"/>
-      <c r="G1023" s="3"/>
-      <c r="H1023" s="3"/>
-      <c r="I1023" s="3"/>
-      <c r="J1023" s="3"/>
-      <c r="K1023" s="1"/>
-      <c r="L1023" s="1"/>
-      <c r="M1023" s="1"/>
-      <c r="N1023" s="1"/>
-      <c r="O1023" s="1"/>
-      <c r="P1023" s="1"/>
-      <c r="Q1023" s="1"/>
-      <c r="R1023" s="1"/>
-      <c r="S1023" s="1"/>
-      <c r="T1023" s="1"/>
-      <c r="U1023" s="1"/>
-      <c r="V1023" s="1"/>
-      <c r="W1023" s="1"/>
-      <c r="X1023" s="1"/>
-      <c r="Y1023" s="1"/>
-      <c r="Z1023" s="1"/>
-      <c r="AA1023" s="1"/>
-      <c r="AB1023" s="1"/>
-    </row>
-    <row r="1024">
-      <c r="A1024" s="1"/>
-      <c r="B1024" s="2"/>
-      <c r="C1024" s="2"/>
-      <c r="D1024" s="2"/>
-      <c r="E1024" s="3"/>
-      <c r="F1024" s="3"/>
-      <c r="G1024" s="3"/>
-      <c r="H1024" s="3"/>
-      <c r="I1024" s="3"/>
-      <c r="J1024" s="3"/>
-      <c r="K1024" s="1"/>
-      <c r="L1024" s="1"/>
-      <c r="M1024" s="1"/>
-      <c r="N1024" s="1"/>
-      <c r="O1024" s="1"/>
-      <c r="P1024" s="1"/>
-      <c r="Q1024" s="1"/>
-      <c r="R1024" s="1"/>
-      <c r="S1024" s="1"/>
-      <c r="T1024" s="1"/>
-      <c r="U1024" s="1"/>
-      <c r="V1024" s="1"/>
-      <c r="W1024" s="1"/>
-      <c r="X1024" s="1"/>
-      <c r="Y1024" s="1"/>
-      <c r="Z1024" s="1"/>
-      <c r="AA1024" s="1"/>
-      <c r="AB1024" s="1"/>
-    </row>
-    <row r="1025">
-      <c r="A1025" s="1"/>
-      <c r="B1025" s="2"/>
-      <c r="C1025" s="2"/>
-      <c r="D1025" s="2"/>
-      <c r="E1025" s="3"/>
-      <c r="F1025" s="3"/>
-      <c r="G1025" s="3"/>
-      <c r="H1025" s="3"/>
-      <c r="I1025" s="3"/>
-      <c r="J1025" s="3"/>
-      <c r="K1025" s="1"/>
-      <c r="L1025" s="1"/>
-      <c r="M1025" s="1"/>
-      <c r="N1025" s="1"/>
-      <c r="O1025" s="1"/>
-      <c r="P1025" s="1"/>
-      <c r="Q1025" s="1"/>
-      <c r="R1025" s="1"/>
-      <c r="S1025" s="1"/>
-      <c r="T1025" s="1"/>
-      <c r="U1025" s="1"/>
-      <c r="V1025" s="1"/>
-      <c r="W1025" s="1"/>
-      <c r="X1025" s="1"/>
-      <c r="Y1025" s="1"/>
-      <c r="Z1025" s="1"/>
-      <c r="AA1025" s="1"/>
-      <c r="AB1025" s="1"/>
-    </row>
-    <row r="1026">
-      <c r="A1026" s="1"/>
-      <c r="B1026" s="2"/>
-      <c r="C1026" s="2"/>
-      <c r="D1026" s="2"/>
-      <c r="E1026" s="3"/>
-      <c r="F1026" s="3"/>
-      <c r="G1026" s="3"/>
-      <c r="H1026" s="3"/>
-      <c r="I1026" s="3"/>
-      <c r="J1026" s="3"/>
-      <c r="K1026" s="1"/>
-      <c r="L1026" s="1"/>
-      <c r="M1026" s="1"/>
-      <c r="N1026" s="1"/>
-      <c r="O1026" s="1"/>
-      <c r="P1026" s="1"/>
-      <c r="Q1026" s="1"/>
-      <c r="R1026" s="1"/>
-      <c r="S1026" s="1"/>
-      <c r="T1026" s="1"/>
-      <c r="U1026" s="1"/>
-      <c r="V1026" s="1"/>
-      <c r="W1026" s="1"/>
-      <c r="X1026" s="1"/>
-      <c r="Y1026" s="1"/>
-      <c r="Z1026" s="1"/>
-      <c r="AA1026" s="1"/>
-      <c r="AB1026" s="1"/>
-    </row>
-    <row r="1027">
-      <c r="A1027" s="1"/>
-      <c r="B1027" s="2"/>
-      <c r="C1027" s="2"/>
-      <c r="D1027" s="2"/>
-      <c r="E1027" s="3"/>
-      <c r="F1027" s="3"/>
-      <c r="G1027" s="3"/>
-      <c r="H1027" s="3"/>
-      <c r="I1027" s="3"/>
-      <c r="J1027" s="3"/>
-      <c r="K1027" s="1"/>
-      <c r="L1027" s="1"/>
-      <c r="M1027" s="1"/>
-      <c r="N1027" s="1"/>
-      <c r="O1027" s="1"/>
-      <c r="P1027" s="1"/>
-      <c r="Q1027" s="1"/>
-      <c r="R1027" s="1"/>
-      <c r="S1027" s="1"/>
-      <c r="T1027" s="1"/>
-      <c r="U1027" s="1"/>
-      <c r="V1027" s="1"/>
-      <c r="W1027" s="1"/>
-      <c r="X1027" s="1"/>
-      <c r="Y1027" s="1"/>
-      <c r="Z1027" s="1"/>
-      <c r="AA1027" s="1"/>
-      <c r="AB1027" s="1"/>
-    </row>
-    <row r="1028">
-      <c r="A1028" s="1"/>
-      <c r="B1028" s="2"/>
-      <c r="C1028" s="2"/>
-      <c r="D1028" s="2"/>
-      <c r="E1028" s="3"/>
-      <c r="F1028" s="3"/>
-      <c r="G1028" s="3"/>
-      <c r="H1028" s="3"/>
-      <c r="I1028" s="3"/>
-      <c r="J1028" s="3"/>
-      <c r="K1028" s="1"/>
-      <c r="L1028" s="1"/>
-      <c r="M1028" s="1"/>
-      <c r="N1028" s="1"/>
-      <c r="O1028" s="1"/>
-      <c r="P1028" s="1"/>
-      <c r="Q1028" s="1"/>
-      <c r="R1028" s="1"/>
-      <c r="S1028" s="1"/>
-      <c r="T1028" s="1"/>
-      <c r="U1028" s="1"/>
-      <c r="V1028" s="1"/>
-      <c r="W1028" s="1"/>
-      <c r="X1028" s="1"/>
-      <c r="Y1028" s="1"/>
-      <c r="Z1028" s="1"/>
-      <c r="AA1028" s="1"/>
-      <c r="AB1028" s="1"/>
-    </row>
-    <row r="1029">
-      <c r="A1029" s="1"/>
-      <c r="B1029" s="2"/>
-      <c r="C1029" s="2"/>
-      <c r="D1029" s="2"/>
-      <c r="E1029" s="3"/>
-      <c r="F1029" s="3"/>
-      <c r="G1029" s="3"/>
-      <c r="H1029" s="3"/>
-      <c r="I1029" s="3"/>
-      <c r="J1029" s="3"/>
-      <c r="K1029" s="1"/>
-      <c r="L1029" s="1"/>
-      <c r="M1029" s="1"/>
-      <c r="N1029" s="1"/>
-      <c r="O1029" s="1"/>
-      <c r="P1029" s="1"/>
-      <c r="Q1029" s="1"/>
-      <c r="R1029" s="1"/>
-      <c r="S1029" s="1"/>
-      <c r="T1029" s="1"/>
-      <c r="U1029" s="1"/>
-      <c r="V1029" s="1"/>
-      <c r="W1029" s="1"/>
-      <c r="X1029" s="1"/>
-      <c r="Y1029" s="1"/>
-      <c r="Z1029" s="1"/>
-      <c r="AA1029" s="1"/>
-      <c r="AB1029" s="1"/>
-    </row>
-    <row r="1030">
-      <c r="A1030" s="1"/>
-      <c r="B1030" s="2"/>
-      <c r="C1030" s="2"/>
-      <c r="D1030" s="2"/>
-      <c r="E1030" s="3"/>
-      <c r="F1030" s="3"/>
-      <c r="G1030" s="3"/>
-      <c r="H1030" s="3"/>
-      <c r="I1030" s="3"/>
-      <c r="J1030" s="3"/>
-      <c r="K1030" s="1"/>
-      <c r="L1030" s="1"/>
-      <c r="M1030" s="1"/>
-      <c r="N1030" s="1"/>
-      <c r="O1030" s="1"/>
-      <c r="P1030" s="1"/>
-      <c r="Q1030" s="1"/>
-      <c r="R1030" s="1"/>
-      <c r="S1030" s="1"/>
-      <c r="T1030" s="1"/>
-      <c r="U1030" s="1"/>
-      <c r="V1030" s="1"/>
-      <c r="W1030" s="1"/>
-      <c r="X1030" s="1"/>
-      <c r="Y1030" s="1"/>
-      <c r="Z1030" s="1"/>
-      <c r="AA1030" s="1"/>
-      <c r="AB1030" s="1"/>
-    </row>
-    <row r="1031">
-      <c r="A1031" s="1"/>
-      <c r="B1031" s="2"/>
-      <c r="C1031" s="2"/>
-      <c r="D1031" s="2"/>
-      <c r="E1031" s="3"/>
-      <c r="F1031" s="3"/>
-      <c r="G1031" s="3"/>
-      <c r="H1031" s="3"/>
-      <c r="I1031" s="3"/>
-      <c r="J1031" s="3"/>
-      <c r="K1031" s="1"/>
-      <c r="L1031" s="1"/>
-      <c r="M1031" s="1"/>
-      <c r="N1031" s="1"/>
-      <c r="O1031" s="1"/>
-      <c r="P1031" s="1"/>
-      <c r="Q1031" s="1"/>
-      <c r="R1031" s="1"/>
-      <c r="S1031" s="1"/>
-      <c r="T1031" s="1"/>
-      <c r="U1031" s="1"/>
-      <c r="V1031" s="1"/>
-      <c r="W1031" s="1"/>
-      <c r="X1031" s="1"/>
-      <c r="Y1031" s="1"/>
-      <c r="Z1031" s="1"/>
-      <c r="AA1031" s="1"/>
-      <c r="AB1031" s="1"/>
-    </row>
-    <row r="1032">
-      <c r="A1032" s="1"/>
-      <c r="B1032" s="2"/>
-      <c r="C1032" s="2"/>
-      <c r="D1032" s="2"/>
-      <c r="E1032" s="3"/>
-      <c r="F1032" s="3"/>
-      <c r="G1032" s="3"/>
-      <c r="H1032" s="3"/>
-      <c r="I1032" s="3"/>
-      <c r="J1032" s="3"/>
-      <c r="K1032" s="1"/>
-      <c r="L1032" s="1"/>
-      <c r="M1032" s="1"/>
-      <c r="N1032" s="1"/>
-      <c r="O1032" s="1"/>
-      <c r="P1032" s="1"/>
-      <c r="Q1032" s="1"/>
-      <c r="R1032" s="1"/>
-      <c r="S1032" s="1"/>
-      <c r="T1032" s="1"/>
-      <c r="U1032" s="1"/>
-      <c r="V1032" s="1"/>
-      <c r="W1032" s="1"/>
-      <c r="X1032" s="1"/>
-      <c r="Y1032" s="1"/>
-      <c r="Z1032" s="1"/>
-      <c r="AA1032" s="1"/>
-      <c r="AB1032" s="1"/>
-    </row>
-    <row r="1033">
-      <c r="A1033" s="1"/>
-      <c r="B1033" s="2"/>
-      <c r="C1033" s="2"/>
-      <c r="D1033" s="2"/>
-      <c r="E1033" s="3"/>
-      <c r="F1033" s="3"/>
-      <c r="G1033" s="3"/>
-      <c r="H1033" s="3"/>
-      <c r="I1033" s="3"/>
-      <c r="J1033" s="3"/>
-      <c r="K1033" s="1"/>
-      <c r="L1033" s="1"/>
-      <c r="M1033" s="1"/>
-      <c r="N1033" s="1"/>
-      <c r="O1033" s="1"/>
-      <c r="P1033" s="1"/>
-      <c r="Q1033" s="1"/>
-      <c r="R1033" s="1"/>
-      <c r="S1033" s="1"/>
-      <c r="T1033" s="1"/>
-      <c r="U1033" s="1"/>
-      <c r="V1033" s="1"/>
-      <c r="W1033" s="1"/>
-      <c r="X1033" s="1"/>
-      <c r="Y1033" s="1"/>
-      <c r="Z1033" s="1"/>
-      <c r="AA1033" s="1"/>
-      <c r="AB1033" s="1"/>
-    </row>
-    <row r="1034">
-      <c r="A1034" s="1"/>
-      <c r="B1034" s="2"/>
-      <c r="C1034" s="2"/>
-      <c r="D1034" s="2"/>
-      <c r="E1034" s="3"/>
-      <c r="F1034" s="3"/>
-      <c r="G1034" s="3"/>
-      <c r="H1034" s="3"/>
-      <c r="I1034" s="3"/>
-      <c r="J1034" s="3"/>
-      <c r="K1034" s="1"/>
-      <c r="L1034" s="1"/>
-      <c r="M1034" s="1"/>
-      <c r="N1034" s="1"/>
-      <c r="O1034" s="1"/>
-      <c r="P1034" s="1"/>
-      <c r="Q1034" s="1"/>
-      <c r="R1034" s="1"/>
-      <c r="S1034" s="1"/>
-      <c r="T1034" s="1"/>
-      <c r="U1034" s="1"/>
-      <c r="V1034" s="1"/>
-      <c r="W1034" s="1"/>
-      <c r="X1034" s="1"/>
-      <c r="Y1034" s="1"/>
-      <c r="Z1034" s="1"/>
-      <c r="AA1034" s="1"/>
-      <c r="AB1034" s="1"/>
-    </row>
-    <row r="1035">
-      <c r="A1035" s="1"/>
-      <c r="B1035" s="2"/>
-      <c r="C1035" s="2"/>
-      <c r="D1035" s="2"/>
-      <c r="E1035" s="3"/>
-      <c r="F1035" s="3"/>
-      <c r="G1035" s="3"/>
-      <c r="H1035" s="3"/>
-      <c r="I1035" s="3"/>
-      <c r="J1035" s="3"/>
-      <c r="K1035" s="1"/>
-      <c r="L1035" s="1"/>
-      <c r="M1035" s="1"/>
-      <c r="N1035" s="1"/>
-      <c r="O1035" s="1"/>
-      <c r="P1035" s="1"/>
-      <c r="Q1035" s="1"/>
-      <c r="R1035" s="1"/>
-      <c r="S1035" s="1"/>
-      <c r="T1035" s="1"/>
-      <c r="U1035" s="1"/>
-      <c r="V1035" s="1"/>
-      <c r="W1035" s="1"/>
-      <c r="X1035" s="1"/>
-      <c r="Y1035" s="1"/>
-      <c r="Z1035" s="1"/>
-      <c r="AA1035" s="1"/>
-      <c r="AB1035" s="1"/>
-    </row>
-    <row r="1036">
-      <c r="A1036" s="1"/>
-      <c r="B1036" s="2"/>
-      <c r="C1036" s="2"/>
-      <c r="D1036" s="2"/>
-      <c r="E1036" s="3"/>
-      <c r="F1036" s="3"/>
-      <c r="G1036" s="3"/>
-      <c r="H1036" s="3"/>
-      <c r="I1036" s="3"/>
-      <c r="J1036" s="3"/>
-      <c r="K1036" s="1"/>
-      <c r="L1036" s="1"/>
-      <c r="M1036" s="1"/>
-      <c r="N1036" s="1"/>
-      <c r="O1036" s="1"/>
-      <c r="P1036" s="1"/>
-      <c r="Q1036" s="1"/>
-      <c r="R1036" s="1"/>
-      <c r="S1036" s="1"/>
-      <c r="T1036" s="1"/>
-      <c r="U1036" s="1"/>
-      <c r="V1036" s="1"/>
-      <c r="W1036" s="1"/>
-      <c r="X1036" s="1"/>
-      <c r="Y1036" s="1"/>
-      <c r="Z1036" s="1"/>
-      <c r="AA1036" s="1"/>
-      <c r="AB1036" s="1"/>
-    </row>
-    <row r="1037">
-      <c r="A1037" s="1"/>
-      <c r="B1037" s="2"/>
-      <c r="C1037" s="2"/>
-      <c r="D1037" s="2"/>
-      <c r="E1037" s="3"/>
-      <c r="F1037" s="3"/>
-      <c r="G1037" s="3"/>
-      <c r="H1037" s="3"/>
-      <c r="I1037" s="3"/>
-      <c r="J1037" s="3"/>
-      <c r="K1037" s="1"/>
-      <c r="L1037" s="1"/>
-      <c r="M1037" s="1"/>
-      <c r="N1037" s="1"/>
-      <c r="O1037" s="1"/>
-      <c r="P1037" s="1"/>
-      <c r="Q1037" s="1"/>
-      <c r="R1037" s="1"/>
-      <c r="S1037" s="1"/>
-      <c r="T1037" s="1"/>
-      <c r="U1037" s="1"/>
-      <c r="V1037" s="1"/>
-      <c r="W1037" s="1"/>
-      <c r="X1037" s="1"/>
-      <c r="Y1037" s="1"/>
-      <c r="Z1037" s="1"/>
-      <c r="AA1037" s="1"/>
-      <c r="AB1037" s="1"/>
-    </row>
-    <row r="1038">
-      <c r="A1038" s="1"/>
-      <c r="B1038" s="2"/>
-      <c r="C1038" s="2"/>
-      <c r="D1038" s="2"/>
-      <c r="E1038" s="3"/>
-      <c r="F1038" s="3"/>
-      <c r="G1038" s="3"/>
-      <c r="H1038" s="3"/>
-      <c r="I1038" s="3"/>
-      <c r="J1038" s="3"/>
-      <c r="K1038" s="1"/>
-      <c r="L1038" s="1"/>
-      <c r="M1038" s="1"/>
-      <c r="N1038" s="1"/>
-      <c r="O1038" s="1"/>
-      <c r="P1038" s="1"/>
-      <c r="Q1038" s="1"/>
-      <c r="R1038" s="1"/>
-      <c r="S1038" s="1"/>
-      <c r="T1038" s="1"/>
-      <c r="U1038" s="1"/>
-      <c r="V1038" s="1"/>
-      <c r="W1038" s="1"/>
-      <c r="X1038" s="1"/>
-      <c r="Y1038" s="1"/>
-      <c r="Z1038" s="1"/>
-      <c r="AA1038" s="1"/>
-      <c r="AB1038" s="1"/>
-    </row>
-    <row r="1039">
-      <c r="A1039" s="1"/>
-      <c r="B1039" s="2"/>
-      <c r="C1039" s="2"/>
-      <c r="D1039" s="2"/>
-      <c r="E1039" s="3"/>
-      <c r="F1039" s="3"/>
-      <c r="G1039" s="3"/>
-      <c r="H1039" s="3"/>
-      <c r="I1039" s="3"/>
-      <c r="J1039" s="3"/>
-      <c r="K1039" s="1"/>
-      <c r="L1039" s="1"/>
-      <c r="M1039" s="1"/>
-      <c r="N1039" s="1"/>
-      <c r="O1039" s="1"/>
-      <c r="P1039" s="1"/>
-      <c r="Q1039" s="1"/>
-      <c r="R1039" s="1"/>
-      <c r="S1039" s="1"/>
-      <c r="T1039" s="1"/>
-      <c r="U1039" s="1"/>
-      <c r="V1039" s="1"/>
-      <c r="W1039" s="1"/>
-      <c r="X1039" s="1"/>
-      <c r="Y1039" s="1"/>
-      <c r="Z1039" s="1"/>
-      <c r="AA1039" s="1"/>
-      <c r="AB1039" s="1"/>
-    </row>
-    <row r="1040">
-      <c r="A1040" s="1"/>
-      <c r="B1040" s="2"/>
-      <c r="C1040" s="2"/>
-      <c r="D1040" s="2"/>
-      <c r="E1040" s="3"/>
-      <c r="F1040" s="3"/>
-      <c r="G1040" s="3"/>
-      <c r="H1040" s="3"/>
-      <c r="I1040" s="3"/>
-      <c r="J1040" s="3"/>
-      <c r="K1040" s="1"/>
-      <c r="L1040" s="1"/>
-      <c r="M1040" s="1"/>
-      <c r="N1040" s="1"/>
-      <c r="O1040" s="1"/>
-      <c r="P1040" s="1"/>
-      <c r="Q1040" s="1"/>
-      <c r="R1040" s="1"/>
-      <c r="S1040" s="1"/>
-      <c r="T1040" s="1"/>
-      <c r="U1040" s="1"/>
-      <c r="V1040" s="1"/>
-      <c r="W1040" s="1"/>
-      <c r="X1040" s="1"/>
-      <c r="Y1040" s="1"/>
-      <c r="Z1040" s="1"/>
-      <c r="AA1040" s="1"/>
-      <c r="AB1040" s="1"/>
-    </row>
-    <row r="1041">
-      <c r="A1041" s="1"/>
-      <c r="B1041" s="2"/>
-      <c r="C1041" s="2"/>
-      <c r="D1041" s="2"/>
-      <c r="E1041" s="3"/>
-      <c r="F1041" s="3"/>
-      <c r="G1041" s="3"/>
-      <c r="H1041" s="3"/>
-      <c r="I1041" s="3"/>
-      <c r="J1041" s="3"/>
-      <c r="K1041" s="1"/>
-      <c r="L1041" s="1"/>
-      <c r="M1041" s="1"/>
-      <c r="N1041" s="1"/>
-      <c r="O1041" s="1"/>
-      <c r="P1041" s="1"/>
-      <c r="Q1041" s="1"/>
-      <c r="R1041" s="1"/>
-      <c r="S1041" s="1"/>
-      <c r="T1041" s="1"/>
-      <c r="U1041" s="1"/>
-      <c r="V1041" s="1"/>
-      <c r="W1041" s="1"/>
-      <c r="X1041" s="1"/>
-      <c r="Y1041" s="1"/>
-      <c r="Z1041" s="1"/>
-      <c r="AA1041" s="1"/>
-      <c r="AB1041" s="1"/>
-    </row>
-    <row r="1042">
-      <c r="A1042" s="1"/>
-      <c r="B1042" s="2"/>
-      <c r="C1042" s="2"/>
-      <c r="D1042" s="2"/>
-      <c r="E1042" s="3"/>
-      <c r="F1042" s="3"/>
-      <c r="G1042" s="3"/>
-      <c r="H1042" s="3"/>
-      <c r="I1042" s="3"/>
-      <c r="J1042" s="3"/>
-      <c r="K1042" s="1"/>
-      <c r="L1042" s="1"/>
-      <c r="M1042" s="1"/>
-      <c r="N1042" s="1"/>
-      <c r="O1042" s="1"/>
-      <c r="P1042" s="1"/>
-      <c r="Q1042" s="1"/>
-      <c r="R1042" s="1"/>
-      <c r="S1042" s="1"/>
-      <c r="T1042" s="1"/>
-      <c r="U1042" s="1"/>
-      <c r="V1042" s="1"/>
-      <c r="W1042" s="1"/>
-      <c r="X1042" s="1"/>
-      <c r="Y1042" s="1"/>
-      <c r="Z1042" s="1"/>
-      <c r="AA1042" s="1"/>
-      <c r="AB1042" s="1"/>
-    </row>
-    <row r="1043">
-      <c r="A1043" s="1"/>
-      <c r="B1043" s="2"/>
-      <c r="C1043" s="2"/>
-      <c r="D1043" s="2"/>
-      <c r="E1043" s="3"/>
-      <c r="F1043" s="3"/>
-      <c r="G1043" s="3"/>
-      <c r="H1043" s="3"/>
-      <c r="I1043" s="3"/>
-      <c r="J1043" s="3"/>
-      <c r="K1043" s="1"/>
-      <c r="L1043" s="1"/>
-      <c r="M1043" s="1"/>
-      <c r="N1043" s="1"/>
-      <c r="O1043" s="1"/>
-      <c r="P1043" s="1"/>
-      <c r="Q1043" s="1"/>
-      <c r="R1043" s="1"/>
-      <c r="S1043" s="1"/>
-      <c r="T1043" s="1"/>
-      <c r="U1043" s="1"/>
-      <c r="V1043" s="1"/>
-      <c r="W1043" s="1"/>
-      <c r="X1043" s="1"/>
-      <c r="Y1043" s="1"/>
-      <c r="Z1043" s="1"/>
-      <c r="AA1043" s="1"/>
-      <c r="AB1043" s="1"/>
-    </row>
-    <row r="1044">
-      <c r="A1044" s="1"/>
-      <c r="B1044" s="2"/>
-      <c r="C1044" s="2"/>
-      <c r="D1044" s="2"/>
-      <c r="E1044" s="3"/>
-      <c r="F1044" s="3"/>
-      <c r="G1044" s="3"/>
-      <c r="H1044" s="3"/>
-      <c r="I1044" s="3"/>
-      <c r="J1044" s="3"/>
-      <c r="K1044" s="1"/>
-      <c r="L1044" s="1"/>
-      <c r="M1044" s="1"/>
-      <c r="N1044" s="1"/>
-      <c r="O1044" s="1"/>
-      <c r="P1044" s="1"/>
-      <c r="Q1044" s="1"/>
-      <c r="R1044" s="1"/>
-      <c r="S1044" s="1"/>
-      <c r="T1044" s="1"/>
-      <c r="U1044" s="1"/>
-      <c r="V1044" s="1"/>
-      <c r="W1044" s="1"/>
-      <c r="X1044" s="1"/>
-      <c r="Y1044" s="1"/>
-      <c r="Z1044" s="1"/>
-      <c r="AA1044" s="1"/>
-      <c r="AB1044" s="1"/>
-    </row>
-    <row r="1045">
-      <c r="A1045" s="1"/>
-      <c r="B1045" s="2"/>
-      <c r="C1045" s="2"/>
-      <c r="D1045" s="2"/>
-      <c r="E1045" s="3"/>
-      <c r="F1045" s="3"/>
-      <c r="G1045" s="3"/>
-      <c r="H1045" s="3"/>
-      <c r="I1045" s="3"/>
-      <c r="J1045" s="3"/>
-      <c r="K1045" s="1"/>
-      <c r="L1045" s="1"/>
-      <c r="M1045" s="1"/>
-      <c r="N1045" s="1"/>
-      <c r="O1045" s="1"/>
-      <c r="P1045" s="1"/>
-      <c r="Q1045" s="1"/>
-      <c r="R1045" s="1"/>
-      <c r="S1045" s="1"/>
-      <c r="T1045" s="1"/>
-      <c r="U1045" s="1"/>
-      <c r="V1045" s="1"/>
-      <c r="W1045" s="1"/>
-      <c r="X1045" s="1"/>
-      <c r="Y1045" s="1"/>
-      <c r="Z1045" s="1"/>
-      <c r="AA1045" s="1"/>
-      <c r="AB1045" s="1"/>
-    </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="B37:J37"/>
     <mergeCell ref="B2:I2"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="C11:C12"/>
@@ -32961,10 +31658,9 @@
     <mergeCell ref="E11:E12"/>
     <mergeCell ref="F11:F12"/>
     <mergeCell ref="G11:G12"/>
-    <mergeCell ref="H11:H12"/>
   </mergeCells>
   <dataValidations>
-    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="B5:B11 B13:B81">
+    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="B5:B11 B13:B37">
       <formula1>OR(NOT(ISERROR(DATEVALUE(B5))), AND(ISNUMBER(B5), LEFT(CELL("format", B5))="D"))</formula1>
     </dataValidation>
   </dataValidations>
@@ -33070,7 +31766,10 @@
     <hyperlink r:id="rId99" ref="I34"/>
     <hyperlink r:id="rId100" ref="J34"/>
     <hyperlink r:id="rId101" ref="F35"/>
+    <hyperlink r:id="rId102" ref="I35"/>
+    <hyperlink r:id="rId103" ref="J35"/>
+    <hyperlink r:id="rId104" ref="F36"/>
   </hyperlinks>
-  <drawing r:id="rId102"/>
+  <drawing r:id="rId105"/>
 </worksheet>
 </file>
--- a/Lý nâng cao/Thư viện bài học.xlsx
+++ b/Lý nâng cao/Thư viện bài học.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="146">
   <si>
     <t>THƯ VIỆN BÀI HỌC - VẬT LÝ 12</t>
   </si>
@@ -501,6 +501,9 @@
       </rPr>
       <t>Đề 14</t>
     </r>
+  </si>
+  <si>
+    <t>File note Buổi 31</t>
   </si>
   <si>
     <t>THI TỐT NGHIỆP THPTQG</t>
@@ -2675,7 +2678,9 @@
       <c r="G36" s="37"/>
       <c r="H36" s="37"/>
       <c r="I36" s="42"/>
-      <c r="J36" s="37"/>
+      <c r="J36" s="18" t="s">
+        <v>144</v>
+      </c>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
@@ -2698,7 +2703,7 @@
     <row r="37">
       <c r="A37" s="43"/>
       <c r="B37" s="44" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C37" s="45"/>
       <c r="D37" s="45"/>
@@ -31769,7 +31774,8 @@
     <hyperlink r:id="rId102" ref="I35"/>
     <hyperlink r:id="rId103" ref="J35"/>
     <hyperlink r:id="rId104" ref="F36"/>
+    <hyperlink r:id="rId105" ref="J36"/>
   </hyperlinks>
-  <drawing r:id="rId105"/>
+  <drawing r:id="rId106"/>
 </worksheet>
 </file>